--- a/sriramModel-nelson-atypical-patientID_49-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_49-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.52212631659634</v>
+        <v>15.60891055306119</v>
       </c>
       <c r="C2">
-        <v>15.60181250025571</v>
+        <v>15.53087897144776</v>
       </c>
       <c r="D2">
-        <v>15.63409943484118</v>
+        <v>15.5618114434036</v>
       </c>
       <c r="E2">
-        <v>15.6016427122845</v>
+        <v>15.55161015761019</v>
       </c>
       <c r="F2">
-        <v>15.55329205448189</v>
+        <v>15.58300740477138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.4483733281599</v>
+        <v>15.6204389797302</v>
       </c>
       <c r="C3">
-        <v>15.60540175698602</v>
+        <v>15.46681916238279</v>
       </c>
       <c r="D3">
-        <v>15.67051845902074</v>
+        <v>15.52803612596731</v>
       </c>
       <c r="E3">
-        <v>15.60417372931781</v>
+        <v>15.50761436274049</v>
       </c>
       <c r="F3">
-        <v>15.51444512251161</v>
+        <v>15.5697450941147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.37869876435128</v>
+        <v>15.63457572633017</v>
       </c>
       <c r="C4">
-        <v>15.61075024534248</v>
+        <v>15.4078046479331</v>
       </c>
       <c r="D4">
-        <v>15.70910892334038</v>
+        <v>15.49865099138283</v>
       </c>
       <c r="E4">
-        <v>15.60757677737256</v>
+        <v>15.46799127391859</v>
       </c>
       <c r="F4">
-        <v>15.48315412731604</v>
+        <v>15.56018905556855</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.31306272240914</v>
+        <v>15.65131101532252</v>
       </c>
       <c r="C5">
-        <v>15.61784024409463</v>
+        <v>15.35381936454314</v>
       </c>
       <c r="D5">
-        <v>15.7497266831742</v>
+        <v>15.47363309737544</v>
       </c>
       <c r="E5">
-        <v>15.61183583157101</v>
+        <v>15.43271968748099</v>
       </c>
       <c r="F5">
-        <v>15.45911907941343</v>
+        <v>15.55431530926515</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.25142748833612</v>
+        <v>15.67063518301047</v>
       </c>
       <c r="C6">
-        <v>15.62665431806429</v>
+        <v>15.30484735654515</v>
       </c>
       <c r="D6">
-        <v>15.79223144708768</v>
+        <v>15.45295983769228</v>
       </c>
       <c r="E6">
-        <v>15.61693527038576</v>
+        <v>15.40177875640045</v>
       </c>
       <c r="F6">
-        <v>15.44204469334322</v>
+        <v>15.55210013991121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.19375727866834</v>
+        <v>15.69253866434723</v>
       </c>
       <c r="C7">
-        <v>15.6371752348228</v>
+        <v>15.26087277183916</v>
       </c>
       <c r="D7">
-        <v>15.83648656527928</v>
+        <v>15.43660893731568</v>
       </c>
       <c r="E7">
-        <v>15.62285984628686</v>
+        <v>15.37514796828522</v>
       </c>
       <c r="F7">
-        <v>15.43164030113239</v>
+        <v>15.55352002351201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.1400180357469</v>
+        <v>15.71701199202782</v>
       </c>
       <c r="C8">
-        <v>15.64938594233129</v>
+        <v>15.22187986066842</v>
       </c>
       <c r="D8">
-        <v>15.88235893815864</v>
+        <v>15.4245584593381</v>
       </c>
       <c r="E8">
-        <v>15.6295946616036</v>
+        <v>15.35280715136022</v>
       </c>
       <c r="F8">
-        <v>15.42761985064997</v>
+        <v>15.55855161093104</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.09017726565304</v>
+        <v>15.74404580203206</v>
       </c>
       <c r="C9">
-        <v>15.6632695777948</v>
+        <v>15.18785296715343</v>
       </c>
       <c r="D9">
-        <v>15.92971895045601</v>
+        <v>15.41678677836578</v>
       </c>
       <c r="E9">
-        <v>15.63712513786836</v>
+        <v>15.33473645479183</v>
       </c>
       <c r="F9">
-        <v>15.42970190446642</v>
+        <v>15.56717168313749</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.04420386819323</v>
+        <v>15.77363083102475</v>
       </c>
       <c r="C10">
-        <v>15.67880946214749</v>
+        <v>15.15877652670393</v>
       </c>
       <c r="D10">
-        <v>15.97844039043801</v>
+        <v>15.41327257143015</v>
       </c>
       <c r="E10">
-        <v>15.64543700759941</v>
+        <v>15.32091633634123</v>
       </c>
       <c r="F10">
-        <v>15.43760964434588</v>
+        <v>15.57935710405426</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.00206800337972</v>
+        <v>15.80575791366602</v>
       </c>
       <c r="C11">
-        <v>15.69598910450478</v>
+        <v>15.13463506524401</v>
       </c>
       <c r="D11">
-        <v>16.0284003500846</v>
+        <v>15.41399481157305</v>
       </c>
       <c r="E11">
-        <v>15.6545163045192</v>
+        <v>15.31132755760267</v>
       </c>
       <c r="F11">
-        <v>15.45107087885421</v>
+        <v>15.59508477902054</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.96374097218255</v>
+        <v>15.84041798184739</v>
       </c>
       <c r="C12">
-        <v>15.71479218918794</v>
+        <v>15.11541319803948</v>
       </c>
       <c r="D12">
-        <v>16.07947915378583</v>
+        <v>15.41893275950809</v>
       </c>
       <c r="E12">
-        <v>15.66434934832744</v>
+        <v>15.30595117827903</v>
       </c>
       <c r="F12">
-        <v>15.4698180642517</v>
+        <v>15.61433161555968</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.92919511399494</v>
+        <v>15.87760206436269</v>
       </c>
       <c r="C13">
-        <v>15.73520257101493</v>
+        <v>15.10109562911806</v>
       </c>
       <c r="D13">
-        <v>16.1315603015155</v>
+        <v>15.42806595323368</v>
       </c>
       <c r="E13">
-        <v>15.67492272427308</v>
+        <v>15.30476854844283</v>
       </c>
       <c r="F13">
-        <v>15.4935883282423</v>
+        <v>15.63707448436874</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.89840370162681</v>
+        <v>15.91730128603951</v>
       </c>
       <c r="C14">
-        <v>15.75720427163576</v>
+        <v>15.09166715166362</v>
       </c>
       <c r="D14">
-        <v>16.18453034116539</v>
+        <v>15.44137419864227</v>
       </c>
       <c r="E14">
-        <v>15.68622328144878</v>
+        <v>15.30776130232233</v>
       </c>
       <c r="F14">
-        <v>15.52212348801558</v>
+        <v>15.66329016969361</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.87134084150728</v>
+        <v>15.9595068664734</v>
       </c>
       <c r="C15">
-        <v>15.78078148032648</v>
+        <v>15.08711264900909</v>
       </c>
       <c r="D15">
-        <v>16.23827880994628</v>
+        <v>15.45883756084115</v>
       </c>
       <c r="E15">
-        <v>15.69823809221437</v>
+        <v>15.31491135312639</v>
       </c>
       <c r="F15">
-        <v>15.55517005905926</v>
+        <v>15.69295531979148</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.84798139461517</v>
+        <v>16.00421011870011</v>
       </c>
       <c r="C16">
-        <v>15.80591854321242</v>
+        <v>15.08741709595926</v>
       </c>
       <c r="D16">
-        <v>16.29269815456448</v>
+        <v>15.4804363556639</v>
       </c>
       <c r="E16">
-        <v>15.71095449608496</v>
+        <v>15.32620088858896</v>
       </c>
       <c r="F16">
-        <v>15.59247927453467</v>
+        <v>15.72604639855492</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.82830090396328</v>
+        <v>16.05140244778661</v>
       </c>
       <c r="C17">
-        <v>15.83259995960238</v>
+        <v>15.09256556058476</v>
       </c>
       <c r="D17">
-        <v>16.3476836452169</v>
+        <v>15.50615113971776</v>
       </c>
       <c r="E17">
-        <v>15.72436001511952</v>
+        <v>15.34161236643925</v>
       </c>
       <c r="F17">
-        <v>15.63380708526981</v>
+        <v>15.76253963570406</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.81227552272856</v>
+        <v>16.10107534931322</v>
       </c>
       <c r="C18">
-        <v>15.8608103772103</v>
+        <v>15.10254320496172</v>
       </c>
       <c r="D18">
-        <v>16.40313333735025</v>
+        <v>15.53596270447073</v>
       </c>
       <c r="E18">
-        <v>15.73844236775805</v>
+        <v>15.36112851087277</v>
       </c>
       <c r="F18">
-        <v>15.67891416176273</v>
+        <v>15.80241097182922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.79988194369768</v>
+        <v>16.15322040767923</v>
       </c>
       <c r="C19">
-        <v>15.89053458226188</v>
+        <v>15.11733528716562</v>
       </c>
       <c r="D19">
-        <v>16.45894799968389</v>
+        <v>15.56985206220059</v>
       </c>
       <c r="E19">
-        <v>15.75318943573662</v>
+        <v>15.38473230845095</v>
       </c>
       <c r="F19">
-        <v>15.72756589509143</v>
+        <v>15.84563598707535</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.79109732866723</v>
+        <v>16.2078292942316</v>
       </c>
       <c r="C20">
-        <v>15.92175749597182</v>
+        <v>15.13692716323818</v>
       </c>
       <c r="D20">
-        <v>16.51503105249862</v>
+        <v>15.60780044998645</v>
       </c>
       <c r="E20">
-        <v>15.76858926502076</v>
+        <v>15.41240700797818</v>
       </c>
       <c r="F20">
-        <v>15.77953238989389</v>
+        <v>15.89218989162513</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.78589924170991</v>
+        <v>16.26489376428862</v>
       </c>
       <c r="C21">
-        <v>15.95446416613025</v>
+        <v>15.16130428753861</v>
       </c>
       <c r="D21">
-        <v>16.57128850045461</v>
+        <v>15.64978930281379</v>
       </c>
       <c r="E21">
-        <v>15.784630043307</v>
+        <v>15.44413611134331</v>
       </c>
       <c r="F21">
-        <v>15.8345884496467</v>
+        <v>15.94204741788406</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.78426558501128</v>
+        <v>16.32440565745647</v>
       </c>
       <c r="C22">
-        <v>15.98863975978499</v>
+        <v>15.1904522156555</v>
       </c>
       <c r="D22">
-        <v>16.62762887385848</v>
+        <v>15.69580025487522</v>
       </c>
       <c r="E22">
-        <v>15.80130007640377</v>
+        <v>15.47990337528145</v>
       </c>
       <c r="F22">
-        <v>15.89251354704633</v>
+        <v>15.99518276907798</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.7861745353559</v>
+        <v>16.38635689242614</v>
       </c>
       <c r="C23">
-        <v>16.02426955284388</v>
+        <v>15.22435660381014</v>
       </c>
       <c r="D23">
-        <v>16.68396318151106</v>
+        <v>15.74581512476053</v>
       </c>
       <c r="E23">
-        <v>15.81858776782472</v>
+        <v>15.51969280432813</v>
       </c>
       <c r="F23">
-        <v>15.9530918330329</v>
+        <v>16.05156957761866</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.79160447429324</v>
+        <v>16.45073946627263</v>
       </c>
       <c r="C24">
-        <v>16.0613389207483</v>
+        <v>15.26300321018311</v>
       </c>
       <c r="D24">
-        <v>16.74020482960144</v>
+        <v>15.79981590595404</v>
       </c>
       <c r="E24">
-        <v>15.83648158634155</v>
+        <v>15.56348865044193</v>
       </c>
       <c r="F24">
-        <v>16.01611205443852</v>
+        <v>16.11118075135951</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.80053392193836</v>
+        <v>16.51754544736986</v>
       </c>
       <c r="C25">
-        <v>16.09983332647472</v>
+        <v>15.30637789380077</v>
       </c>
       <c r="D25">
-        <v>16.79626960918392</v>
+        <v>15.85778475677505</v>
       </c>
       <c r="E25">
-        <v>15.85497004312079</v>
+        <v>15.61127540862076</v>
       </c>
       <c r="F25">
-        <v>16.08136762361378</v>
+        <v>16.173988469016</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>14.81294145915196</v>
+        <v>16.58676697425455</v>
       </c>
       <c r="C26">
-        <v>16.13973830700144</v>
+        <v>15.35446661354432</v>
       </c>
       <c r="D26">
-        <v>16.85207561035948</v>
+        <v>15.919703990034</v>
       </c>
       <c r="E26">
-        <v>15.87404166212911</v>
+        <v>15.66303781515623</v>
       </c>
       <c r="F26">
-        <v>16.14865647673692</v>
+        <v>16.23996405017905</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>14.82880564992266</v>
+        <v>16.6583962506143</v>
       </c>
       <c r="C27">
-        <v>16.18103945921865</v>
+        <v>15.40725542727564</v>
       </c>
       <c r="D27">
-        <v>16.90754318226102</v>
+        <v>15.98555605904523</v>
       </c>
       <c r="E27">
-        <v>15.89368494930669</v>
+        <v>15.71876084293973</v>
       </c>
       <c r="F27">
-        <v>16.21778109457992</v>
+        <v>16.3090778911717</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>14.84810496049303</v>
+        <v>16.7324255413846</v>
       </c>
       <c r="C28">
-        <v>16.22372242459988</v>
+        <v>15.46473048791353</v>
       </c>
       <c r="D28">
-        <v>16.96259492759695</v>
+        <v>16.0553235465125</v>
       </c>
       <c r="E28">
-        <v>15.91388835709454</v>
+        <v>15.77842969853782</v>
       </c>
       <c r="F28">
-        <v>16.28854842433627</v>
+        <v>16.38129937416804</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>14.87081766197818</v>
+        <v>16.80884716655854</v>
       </c>
       <c r="C29">
-        <v>16.26777286838606</v>
+        <v>15.52687804014204</v>
       </c>
       <c r="D29">
-        <v>17.01715557707158</v>
+        <v>16.12898914753536</v>
       </c>
       <c r="E29">
-        <v>15.93464024307236</v>
+        <v>15.84202981644523</v>
       </c>
       <c r="F29">
-        <v>16.36076985758787</v>
+        <v>16.4565967488205</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>14.89692173357394</v>
+        <v>16.88765349444434</v>
       </c>
       <c r="C30">
-        <v>16.31317645799187</v>
+        <v>15.59368441681388</v>
       </c>
       <c r="D30">
-        <v>17.07115205209634</v>
+        <v>16.20653565471238</v>
       </c>
       <c r="E30">
-        <v>15.95592881816603</v>
+        <v>15.90954685528624</v>
       </c>
       <c r="F30">
-        <v>16.43426118238375</v>
+        <v>16.53493704247756</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>14.92639476071369</v>
+        <v>16.96883693511788</v>
       </c>
       <c r="C31">
-        <v>16.35991884146714</v>
+        <v>15.66513603089665</v>
       </c>
       <c r="D31">
-        <v>17.12451331863221</v>
+        <v>16.2879459437734</v>
       </c>
       <c r="E31">
-        <v>15.97774212511342</v>
+        <v>15.98096669285695</v>
       </c>
       <c r="F31">
-        <v>16.50884254752016</v>
+        <v>16.61628592021439</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>14.9592137995706</v>
+        <v>17.05238993061805</v>
       </c>
       <c r="C32">
-        <v>16.40798561453578</v>
+        <v>15.74121936740391</v>
       </c>
       <c r="D32">
-        <v>17.1771704300633</v>
+        <v>16.37320295196818</v>
       </c>
       <c r="E32">
-        <v>16.000067925696</v>
+        <v>16.05627541900689</v>
       </c>
       <c r="F32">
-        <v>16.58433838540763</v>
+        <v>16.70060755656673</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>14.99535523512979</v>
+        <v>17.13830494561963</v>
       </c>
       <c r="C33">
-        <v>16.45736228770174</v>
+        <v>15.82192097638034</v>
       </c>
       <c r="D33">
-        <v>17.22905642803406</v>
+        <v>16.4622896601093</v>
       </c>
       <c r="E33">
-        <v>16.02289374097468</v>
+        <v>16.13545932959688</v>
       </c>
       <c r="F33">
-        <v>16.66057737689492</v>
+        <v>16.7878645284876</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>15.03479464205117</v>
+        <v>17.22657445623186</v>
       </c>
       <c r="C34">
-        <v>16.50803425199643</v>
+        <v>15.90722745811737</v>
       </c>
       <c r="D34">
-        <v>17.28010633742987</v>
+        <v>16.55518907221306</v>
       </c>
       <c r="E34">
-        <v>16.04620663700926</v>
+        <v>16.21850491897238</v>
       </c>
       <c r="F34">
-        <v>16.73739238036772</v>
+        <v>16.8780176249381</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>15.07750659120118</v>
+        <v>17.31719093698259</v>
       </c>
       <c r="C35">
-        <v>16.55998672939792</v>
+        <v>15.99712544947042</v>
       </c>
       <c r="D35">
-        <v>17.33025710857295</v>
+        <v>16.65188418697456</v>
       </c>
       <c r="E35">
-        <v>16.06999332706122</v>
+        <v>16.30539886907983</v>
       </c>
       <c r="F35">
-        <v>16.81462037986649</v>
+        <v>16.97102573326147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>15.12346444366333</v>
+        <v>17.41014684393135</v>
       </c>
       <c r="C36">
-        <v>16.61320471880783</v>
+        <v>16.09160161085994</v>
       </c>
       <c r="D36">
-        <v>17.37944758768328</v>
+        <v>16.75235797580306</v>
       </c>
       <c r="E36">
-        <v>16.0942398693501</v>
+        <v>16.39612804120479</v>
       </c>
       <c r="F36">
-        <v>16.89210242143288</v>
+        <v>17.06684565434192</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15.17264013892154</v>
+        <v>17.50543459028231</v>
       </c>
       <c r="C37">
-        <v>16.66767293953278</v>
+        <v>16.19064260204878</v>
       </c>
       <c r="D37">
-        <v>17.42761847826549</v>
+        <v>16.85659335033807</v>
       </c>
       <c r="E37">
-        <v>16.11893179196757</v>
+        <v>16.49067946201598</v>
       </c>
       <c r="F37">
-        <v>16.96968354919762</v>
+        <v>17.16543189889628</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>15.22500392296295</v>
+        <v>17.60304654655349</v>
       </c>
       <c r="C38">
-        <v>16.72337575597196</v>
+        <v>16.29423505920249</v>
       </c>
       <c r="D38">
-        <v>17.47471229732778</v>
+        <v>16.96457312577571</v>
       </c>
       <c r="E38">
-        <v>16.1440537477566</v>
+        <v>16.58904030714987</v>
       </c>
       <c r="F38">
-        <v>17.04721274153161</v>
+        <v>17.26673654672539</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>15.280524023435</v>
+        <v>17.70297497334423</v>
       </c>
       <c r="C39">
-        <v>16.78029708570502</v>
+        <v>16.4023655732525</v>
       </c>
       <c r="D39">
-        <v>17.5206733545376</v>
+        <v>17.07627999165346</v>
       </c>
       <c r="E39">
-        <v>16.16958960568832</v>
+        <v>16.69119788859244</v>
       </c>
       <c r="F39">
-        <v>17.12454284198613</v>
+        <v>17.37070895968969</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>15.33916631183957</v>
+        <v>17.80521205281056</v>
       </c>
       <c r="C40">
-        <v>16.83842030167045</v>
+        <v>16.51502065046916</v>
       </c>
       <c r="D40">
-        <v>17.56544769453824</v>
+        <v>17.19169646082651</v>
       </c>
       <c r="E40">
-        <v>16.19552208312932</v>
+        <v>16.79713962897591</v>
       </c>
       <c r="F40">
-        <v>17.20153048728897</v>
+        <v>17.47729561284773</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>15.40089391978663</v>
+        <v>17.90974979471691</v>
       </c>
       <c r="C41">
-        <v>16.8977281186437</v>
+        <v>16.63218667617854</v>
       </c>
       <c r="D41">
-        <v>17.60898308231412</v>
+        <v>17.31080482019972</v>
       </c>
       <c r="E41">
-        <v>16.22183279268322</v>
+        <v>16.90685303583015</v>
       </c>
       <c r="F41">
-        <v>17.27803602932606</v>
+        <v>17.58643982033104</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>15.46566671410511</v>
+        <v>18.01658002054338</v>
       </c>
       <c r="C42">
-        <v>16.9582024309501</v>
+        <v>16.75384987921011</v>
       </c>
       <c r="D42">
-        <v>17.65122894913791</v>
+        <v>17.43358708974408</v>
       </c>
       <c r="E42">
-        <v>16.24850182362557</v>
+        <v>17.02032568088012</v>
       </c>
       <c r="F42">
-        <v>17.35392346137306</v>
+        <v>17.69808144274207</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>15.5334407505636</v>
+        <v>18.12569433511421</v>
       </c>
       <c r="C43">
-        <v>17.01982413829318</v>
+        <v>16.87999626850003</v>
       </c>
       <c r="D43">
-        <v>17.69213636596892</v>
+        <v>17.56002494078419</v>
       </c>
       <c r="E43">
-        <v>16.27550773945074</v>
+        <v>17.13754515137118</v>
       </c>
       <c r="F43">
-        <v>17.4290603357222</v>
+        <v>17.81215667159346</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>15.60416772596174</v>
+        <v>18.23708397703614</v>
       </c>
       <c r="C44">
-        <v>17.08257297264192</v>
+        <v>17.01061157271116</v>
       </c>
       <c r="D44">
-        <v>17.73165800332892</v>
+        <v>17.6900996349353</v>
       </c>
       <c r="E44">
-        <v>16.30282709531134</v>
+        <v>17.25849901238413</v>
       </c>
       <c r="F44">
-        <v>17.50331767705392</v>
+        <v>17.92859761841571</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>15.67779411178876</v>
+        <v>18.35073991516923</v>
       </c>
       <c r="C45">
-        <v>17.14642720295684</v>
+        <v>17.1456811832814</v>
       </c>
       <c r="D45">
-        <v>17.76974809348367</v>
+        <v>17.82379194575723</v>
       </c>
       <c r="E45">
-        <v>16.3304343497618</v>
+        <v>17.3831747602193</v>
       </c>
       <c r="F45">
-        <v>17.57656989580804</v>
+        <v>18.04733204379344</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>15.75426029832449</v>
+        <v>18.46665255192604</v>
       </c>
       <c r="C46">
-        <v>17.21136333548236</v>
+        <v>17.28519004924529</v>
       </c>
       <c r="D46">
-        <v>17.80636239468661</v>
+        <v>17.96108204107013</v>
       </c>
       <c r="E46">
-        <v>16.35830145193591</v>
+        <v>17.51155973809512</v>
       </c>
       <c r="F46">
-        <v>17.64869469692547</v>
+        <v>18.16828297022701</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>15.83349970461383</v>
+        <v>18.58481175179031</v>
       </c>
       <c r="C47">
-        <v>17.27735580469294</v>
+        <v>17.42912257699581</v>
       </c>
       <c r="D47">
-        <v>17.84145815396068</v>
+        <v>18.10194939866721</v>
       </c>
       <c r="E47">
-        <v>16.38639730107817</v>
+        <v>17.64364107618557</v>
       </c>
       <c r="F47">
-        <v>17.71957297720018</v>
+        <v>18.29136821972548</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>15.91543745118501</v>
+        <v>18.70520665043461</v>
       </c>
       <c r="C48">
-        <v>17.34437647624464</v>
+        <v>17.57746253574323</v>
       </c>
       <c r="D48">
-        <v>17.87499406833898</v>
+        <v>18.24637265912822</v>
       </c>
       <c r="E48">
-        <v>16.41468738056977</v>
+        <v>17.77940558623843</v>
       </c>
       <c r="F48">
-        <v>17.78908872701304</v>
+        <v>18.41650010026438</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>15.99998895314889</v>
+        <v>18.82782550658016</v>
       </c>
       <c r="C49">
-        <v>17.41239409801149</v>
+        <v>17.73019287736971</v>
       </c>
       <c r="D49">
-        <v>17.9069302500401</v>
+        <v>18.39432945483151</v>
       </c>
       <c r="E49">
-        <v>16.44313324214206</v>
+        <v>17.91883961446491</v>
       </c>
       <c r="F49">
-        <v>17.85712892702486</v>
+        <v>18.54358478487597</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>16.08705845366057</v>
+        <v>18.95265556564812</v>
       </c>
       <c r="C50">
-        <v>17.48137372607347</v>
+        <v>17.88729556300654</v>
       </c>
       <c r="D50">
-        <v>17.93722818705903</v>
+        <v>18.54579628151297</v>
       </c>
       <c r="E50">
-        <v>16.47169192259052</v>
+        <v>18.06192893600668</v>
       </c>
       <c r="F50">
-        <v>17.92358343035504</v>
+        <v>18.67252188340913</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>16.17653715918757</v>
+        <v>19.07968274863791</v>
       </c>
       <c r="C51">
-        <v>17.55127594992134</v>
+        <v>18.04875140099542</v>
       </c>
       <c r="D51">
-        <v>17.96585070757025</v>
+        <v>18.70074822730856</v>
       </c>
       <c r="E51">
-        <v>16.50031516214132</v>
+        <v>18.20865852134689</v>
       </c>
       <c r="F51">
-        <v>17.98834484384137</v>
+        <v>18.80320388336543</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>16.26830071402214</v>
+        <v>19.20889139174144</v>
       </c>
       <c r="C52">
-        <v>17.62205578971234</v>
+        <v>18.2145397229379</v>
       </c>
       <c r="D52">
-        <v>17.99276194536471</v>
+        <v>18.85915871140535</v>
       </c>
       <c r="E52">
-        <v>16.52894881760337</v>
+        <v>18.35901226908837</v>
       </c>
       <c r="F52">
-        <v>18.05130842130259</v>
+        <v>18.9355154165915</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>16.37988295596402</v>
+        <v>19.34026395095157</v>
       </c>
       <c r="C53">
-        <v>17.70560991659588</v>
+        <v>18.38463807176743</v>
       </c>
       <c r="D53">
-        <v>18.02582980696792</v>
+        <v>19.0209992700858</v>
       </c>
       <c r="E53">
-        <v>16.57437827771595</v>
+        <v>18.51297280965225</v>
       </c>
       <c r="F53">
-        <v>18.12198329660065</v>
+        <v>19.06933278789705</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>16.52839586951011</v>
+        <v>19.47378041238405</v>
       </c>
       <c r="C54">
-        <v>17.81361478463112</v>
+        <v>18.55902190624094</v>
       </c>
       <c r="D54">
-        <v>18.07226197013667</v>
+        <v>19.18623904433613</v>
       </c>
       <c r="E54">
-        <v>16.65288480479147</v>
+        <v>18.67052098530698</v>
       </c>
       <c r="F54">
-        <v>18.20906401780714</v>
+        <v>19.20452303720923</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>16.71299003332279</v>
+        <v>19.60941795207176</v>
       </c>
       <c r="C55">
-        <v>17.94566829923373</v>
+        <v>18.73766398930693</v>
       </c>
       <c r="D55">
-        <v>18.1310610665013</v>
+        <v>19.35484442503084</v>
       </c>
       <c r="E55">
-        <v>16.76366575502875</v>
+        <v>18.83163538081027</v>
       </c>
       <c r="F55">
-        <v>18.31124283658639</v>
+        <v>19.34094324563333</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>16.93269302093339</v>
+        <v>19.74715017120655</v>
       </c>
       <c r="C56">
-        <v>18.10133347072238</v>
+        <v>18.92053379874166</v>
       </c>
       <c r="D56">
-        <v>18.20126443100187</v>
+        <v>19.52677852713983</v>
       </c>
       <c r="E56">
-        <v>16.90590411345779</v>
+        <v>18.99629191116138</v>
       </c>
       <c r="F56">
-        <v>18.42724683925366</v>
+        <v>19.4784397311612</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>17.18638306579104</v>
+        <v>19.88694617668105</v>
       </c>
       <c r="C57">
-        <v>18.28012724419948</v>
+        <v>19.10759700842764</v>
       </c>
       <c r="D57">
-        <v>18.28193954577597</v>
+        <v>19.70200034914457</v>
       </c>
       <c r="E57">
-        <v>17.0787369109429</v>
+        <v>19.16446270110202</v>
       </c>
       <c r="F57">
-        <v>18.55583285992919</v>
+        <v>19.61684688379858</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>17.47276112351218</v>
+        <v>20.02876999178218</v>
       </c>
       <c r="C58">
-        <v>18.48150660494775</v>
+        <v>19.2988141647052</v>
       </c>
       <c r="D58">
-        <v>18.3721805877288</v>
+        <v>19.88046431344203</v>
       </c>
       <c r="E58">
-        <v>17.28122674104497</v>
+        <v>19.33611517485561</v>
       </c>
       <c r="F58">
-        <v>18.69578577943134</v>
+        <v>19.75598652127887</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>17.79031787297636</v>
+        <v>20.17257886512918</v>
       </c>
       <c r="C59">
-        <v>18.70485173571986</v>
+        <v>19.49413959132347</v>
       </c>
       <c r="D59">
-        <v>18.47110570373574</v>
+        <v>20.0621187672927</v>
       </c>
       <c r="E59">
-        <v>17.51233359622849</v>
+        <v>19.511210751446</v>
       </c>
       <c r="F59">
-        <v>18.84591702841346</v>
+        <v>19.89566636165732</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>18.13729476121152</v>
+        <v>20.31832198770336</v>
       </c>
       <c r="C60">
-        <v>18.94944558538927</v>
+        <v>19.69351982673818</v>
       </c>
       <c r="D60">
-        <v>18.57785460968176</v>
+        <v>20.24690489611971</v>
       </c>
       <c r="E60">
-        <v>17.7708865855926</v>
+        <v>19.6897031884674</v>
       </c>
       <c r="F60">
-        <v>19.00506283168731</v>
+        <v>20.03567902526959</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>18.51164350221921</v>
+        <v>20.46593909753322</v>
       </c>
       <c r="C61">
-        <v>19.21444916912261</v>
+        <v>19.89689159594248</v>
       </c>
       <c r="D61">
-        <v>18.69158631749246</v>
+        <v>20.43475511954399</v>
       </c>
       <c r="E61">
-        <v>18.05555292600105</v>
+        <v>19.87153646814904</v>
       </c>
       <c r="F61">
-        <v>19.17208250677835</v>
+        <v>20.17580073397618</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>18.91098172701114</v>
+        <v>20.61535754389752</v>
       </c>
       <c r="C62">
-        <v>19.49887173514212</v>
+        <v>20.10417910809605</v>
       </c>
       <c r="D62">
-        <v>18.8114773826635</v>
+        <v>20.62559104256388</v>
       </c>
       <c r="E62">
-        <v>18.36480444445208</v>
+        <v>20.05664195306665</v>
       </c>
       <c r="F62">
-        <v>19.34585715520632</v>
+        <v>20.31578995980976</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>19.33254473183706</v>
+        <v>20.76648982439138</v>
       </c>
       <c r="C63">
-        <v>19.80153578441803</v>
+        <v>20.31529047053633</v>
       </c>
       <c r="D63">
-        <v>18.93672064368828</v>
+        <v>20.81932081074854</v>
       </c>
       <c r="E63">
-        <v>18.69688104243973</v>
+        <v>20.24493484101365</v>
       </c>
       <c r="F63">
-        <v>19.52528833939892</v>
+        <v>20.45538600865759</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>19.77313835416254</v>
+        <v>20.91923031134453</v>
       </c>
       <c r="C64">
-        <v>20.12103577742807</v>
+        <v>20.53011299055185</v>
       </c>
       <c r="D64">
-        <v>19.06652413346603</v>
+        <v>21.01583566938537</v>
       </c>
       <c r="E64">
-        <v>19.04975168820187</v>
+        <v>20.43630964802085</v>
       </c>
       <c r="F64">
-        <v>19.70929697849562</v>
+        <v>20.59430747221387</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>20.22909607043297</v>
+        <v>21.07345150777043</v>
       </c>
       <c r="C65">
-        <v>20.45569175201992</v>
+        <v>20.74850689099967</v>
       </c>
       <c r="D65">
-        <v>19.20011011519683</v>
+        <v>21.2150056769942</v>
       </c>
       <c r="E65">
-        <v>19.42107372431763</v>
+        <v>20.63063445421139</v>
       </c>
       <c r="F65">
-        <v>19.89682238729943</v>
+        <v>20.73225071271851</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20.6962460527115</v>
+        <v>21.22899929350768</v>
       </c>
       <c r="C66">
-        <v>20.80349869054912</v>
+        <v>20.97029723197571</v>
       </c>
       <c r="D66">
-        <v>19.33671437055513</v>
+        <v>21.41667392609652</v>
       </c>
       <c r="E66">
-        <v>19.80815255717381</v>
+        <v>20.82774360938232</v>
       </c>
       <c r="F66">
-        <v>20.08682163041305</v>
+        <v>20.86888837177864</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>21.16989626965682</v>
+        <v>21.38568727005882</v>
       </c>
       <c r="C67">
-        <v>21.16207484744582</v>
+        <v>21.19526159508265</v>
       </c>
       <c r="D67">
-        <v>19.47558579326946</v>
+        <v>21.62064912932723</v>
       </c>
       <c r="E67">
-        <v>20.20790488656909</v>
+        <v>21.02742855571389</v>
       </c>
       <c r="F67">
-        <v>20.27826904216098</v>
+        <v>21.00386797407172</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>21.6448490811607</v>
+        <v>21.54329022203099</v>
       </c>
       <c r="C68">
-        <v>21.52861293107455</v>
+        <v>21.42311502035422</v>
       </c>
       <c r="D68">
-        <v>19.61598624395956</v>
+        <v>21.82669612979409</v>
       </c>
       <c r="E68">
-        <v>20.61683053262679</v>
+        <v>21.22942632046581</v>
       </c>
       <c r="F68">
-        <v>20.47015614056952</v>
+        <v>21.13681074717242</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>22.11545519284299</v>
+        <v>21.70153661040611</v>
       </c>
       <c r="C69">
-        <v>21.89984251586077</v>
+        <v>21.65348942230355</v>
       </c>
       <c r="D69">
-        <v>19.75719065741813</v>
+        <v>22.03452261083291</v>
       </c>
       <c r="E69">
-        <v>21.03099913049631</v>
+        <v>21.43340627612311</v>
       </c>
       <c r="F69">
-        <v>20.66149196143532</v>
+        <v>21.26731073537557</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>22.57572131689481</v>
+        <v>21.86010005748404</v>
       </c>
       <c r="C70">
-        <v>22.2720141028723</v>
+        <v>21.88590533857181</v>
       </c>
       <c r="D70">
-        <v>19.89848742346911</v>
+        <v>22.24376161921601</v>
       </c>
       <c r="E70">
-        <v>21.44606094124835</v>
+        <v>21.63895134732464</v>
       </c>
       <c r="F70">
-        <v>20.85130385407667</v>
+        <v>21.39493444594495</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>23.01947767185576</v>
+        <v>22.01859013762098</v>
       </c>
       <c r="C71">
-        <v>22.64091645732772</v>
+        <v>22.11973434913421</v>
       </c>
       <c r="D71">
-        <v>20.03917908219654</v>
+        <v>22.45394987133191</v>
       </c>
       <c r="E71">
-        <v>21.8572903968942</v>
+        <v>21.84553877324914</v>
       </c>
       <c r="F71">
-        <v>21.03863892421477</v>
+        <v>21.51922161469798</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>23.44060989705892</v>
+        <v>22.17654227701039</v>
       </c>
       <c r="C72">
-        <v>23.00194587209548</v>
+        <v>22.35415102386307</v>
       </c>
       <c r="D72">
-        <v>20.17858337548468</v>
+        <v>22.66449877068533</v>
       </c>
       <c r="E72">
-        <v>22.25967308514583</v>
+        <v>22.05251719863682</v>
       </c>
       <c r="F72">
-        <v>21.22256622986446</v>
+        <v>21.6396870547128</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>23.83334442575864</v>
+        <v>22.33340761127237</v>
       </c>
       <c r="C73">
-        <v>23.35023360798669</v>
+        <v>22.58807209452096</v>
       </c>
       <c r="D73">
-        <v>20.31603469769706</v>
+        <v>22.87465676869856</v>
       </c>
       <c r="E73">
-        <v>22.64804265877683</v>
+        <v>22.25908069369596</v>
       </c>
       <c r="F73">
-        <v>21.40217999875427</v>
+        <v>21.75582405303677</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>24.19256509191047</v>
+        <v>22.48854349948851</v>
       </c>
       <c r="C74">
-        <v>23.68084049644894</v>
+        <v>22.82008450619427</v>
       </c>
       <c r="D74">
-        <v>20.45088598511672</v>
+        <v>23.08346197253911</v>
       </c>
       <c r="E74">
-        <v>23.01726899549125</v>
+        <v>22.46424179924571</v>
       </c>
       <c r="F74">
-        <v>21.57660363316294</v>
+        <v>21.86710994016324</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>24.51412351705455</v>
+        <v>22.64120556655759</v>
       </c>
       <c r="C75">
-        <v>23.98901231955044</v>
+        <v>23.04836818365734</v>
       </c>
       <c r="D75">
-        <v>20.58251105235494</v>
+        <v>23.28968613298614</v>
       </c>
       <c r="E75">
-        <v>23.36249163373693</v>
+        <v>22.66680648250124</v>
       </c>
       <c r="F75">
-        <v>21.74499498996945</v>
+        <v>21.97301505188436</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>24.79509976370088</v>
+        <v>22.7905426339116</v>
       </c>
       <c r="C76">
-        <v>24.27047176870354</v>
+        <v>23.27062635354272</v>
       </c>
       <c r="D76">
-        <v>20.71030752175937</v>
+        <v>23.49177324108584</v>
       </c>
       <c r="E76">
-        <v>23.67937755941308</v>
+        <v>22.86535460532673</v>
       </c>
       <c r="F76">
-        <v>21.90655382028353</v>
+        <v>22.07301424589171</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>25.03396135325175</v>
+        <v>22.93559774468459</v>
       </c>
       <c r="C77">
-        <v>24.52170937347209</v>
+        <v>23.48404941212797</v>
       </c>
       <c r="D77">
-        <v>20.83370032291486</v>
+        <v>23.68777909397625</v>
       </c>
       <c r="E77">
-        <v>23.96437575643126</v>
+        <v>23.05823165548946</v>
       </c>
       <c r="F77">
-        <v>22.06052993956623</v>
+        <v>22.16660182822633</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>25.23060174108604</v>
+        <v>23.07531460041956</v>
       </c>
       <c r="C78">
-        <v>24.74022688628661</v>
+        <v>23.68534465333524</v>
       </c>
       <c r="D78">
-        <v>20.95214580067061</v>
+        <v>23.87532981350216</v>
       </c>
       <c r="E78">
-        <v>24.21493185653812</v>
+        <v>23.24355812888869</v>
       </c>
       <c r="F78">
-        <v>22.20623250486347</v>
+        <v>22.25330979910946</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>25.38624424416145</v>
+        <v>23.20855302689811</v>
       </c>
       <c r="C79">
-        <v>24.92468718637849</v>
+        <v>23.87087179661734</v>
       </c>
       <c r="D79">
-        <v>21.06513639845785</v>
+        <v>24.05162590529864</v>
       </c>
       <c r="E79">
-        <v>24.42962267243442</v>
+        <v>23.41926881794397</v>
       </c>
       <c r="F79">
-        <v>22.34304112882733</v>
+        <v>22.3327276687843</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>25.5032299941028</v>
+        <v>23.33411546127318</v>
       </c>
       <c r="C80">
-        <v>25.07494502097932</v>
+        <v>24.03690947468035</v>
       </c>
       <c r="D80">
-        <v>21.17220593411473</v>
+        <v>24.21352326874883</v>
       </c>
       <c r="E80">
-        <v>24.60819510779188</v>
+        <v>23.58318094769059</v>
       </c>
       <c r="F80">
-        <v>22.47041751092022</v>
+        <v>22.40452220781411</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>25.58473235788133</v>
+        <v>23.45078441802384</v>
       </c>
       <c r="C81">
-        <v>25.19195512089459</v>
+        <v>24.18004173732671</v>
       </c>
       <c r="D81">
-        <v>21.27293529274527</v>
+        <v>24.35772974881516</v>
       </c>
       <c r="E81">
-        <v>24.75149681061213</v>
+        <v>23.73309829943454</v>
       </c>
       <c r="F81">
-        <v>22.58791604157949</v>
+        <v>22.46845446235935</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>25.63444342464201</v>
+        <v>23.55736985551706</v>
       </c>
       <c r="C82">
-        <v>25.27758279493372</v>
+        <v>24.29759680518962</v>
       </c>
       <c r="D82">
-        <v>21.36695835479339</v>
+        <v>24.48111277056207</v>
       </c>
       <c r="E82">
-        <v>24.86131349445781</v>
+        <v>23.86694797446922</v>
       </c>
       <c r="F82">
-        <v>22.69519480779119</v>
+        <v>22.52439135762145</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>25.656277955349</v>
+        <v>23.65276462698201</v>
       </c>
       <c r="C83">
-        <v>25.33435545012841</v>
+        <v>24.38802545717034</v>
       </c>
       <c r="D83">
-        <v>21.45396784988005</v>
+        <v>24.58109159515482</v>
       </c>
       <c r="E83">
-        <v>24.94014517674136</v>
+        <v>23.98293264760942</v>
       </c>
       <c r="F83">
-        <v>22.79202327387193</v>
+        <v>22.57230968780323</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>25.65412543144819</v>
+        <v>23.73600267877836</v>
       </c>
       <c r="C84">
-        <v>25.36520148095501</v>
+        <v>24.45109911718486</v>
       </c>
       <c r="D84">
-        <v>21.53372073467438</v>
+        <v>24.65601897070083</v>
       </c>
       <c r="E84">
-        <v>24.9909568314071</v>
+        <v>24.07967790608012</v>
       </c>
       <c r="F84">
-        <v>22.87828570719305</v>
+        <v>22.61229222431903</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>25.63166595855197</v>
+        <v>23.80631406833109</v>
       </c>
       <c r="C85">
-        <v>25.37321138287044</v>
+        <v>24.48787122095847</v>
       </c>
       <c r="D85">
-        <v>21.6060427291958</v>
+        <v>24.70543644984657</v>
       </c>
       <c r="E85">
-        <v>25.01693922665084</v>
+        <v>24.15634928233568</v>
       </c>
       <c r="F85">
-        <v>22.95398115205023</v>
+        <v>22.64451630213254</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>25.59215702947911</v>
+        <v>23.86316976103621</v>
       </c>
       <c r="C86">
-        <v>25.36121257347961</v>
+        <v>24.50042889067102</v>
       </c>
       <c r="D86">
-        <v>21.66982732345719</v>
+        <v>24.73011726058435</v>
       </c>
       <c r="E86">
-        <v>25.02101367946258</v>
+        <v>24.21271499194744</v>
       </c>
       <c r="F86">
-        <v>23.01840104081483</v>
+        <v>22.66923764267739</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>25.53853179880075</v>
+        <v>23.90631139206465</v>
       </c>
       <c r="C87">
-        <v>25.33201204024862</v>
+        <v>24.49152260900388</v>
       </c>
       <c r="D87">
-        <v>21.72427408170252</v>
+        <v>24.73188614523111</v>
       </c>
       <c r="E87">
-        <v>25.00615625944721</v>
+        <v>24.24914346438167</v>
       </c>
       <c r="F87">
-        <v>23.07115167466175</v>
+        <v>22.68677158841143</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>25.47342217556127</v>
+        <v>23.93575751039271</v>
       </c>
       <c r="C88">
-        <v>25.28841305994159</v>
+        <v>24.46418805704899</v>
       </c>
       <c r="D88">
-        <v>21.76974998725099</v>
+        <v>24.7132879970533</v>
       </c>
       <c r="E88">
-        <v>24.9754191977854</v>
+        <v>24.26653839843813</v>
       </c>
       <c r="F88">
-        <v>23.11281869123494</v>
+        <v>22.69747450680075</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>25.39903497947219</v>
+        <v>23.95179382749001</v>
       </c>
       <c r="C89">
-        <v>25.2328567527017</v>
+        <v>24.42143415686941</v>
       </c>
       <c r="D89">
-        <v>21.80665422070554</v>
+        <v>24.67721359205768</v>
       </c>
       <c r="E89">
-        <v>24.93147765549617</v>
+        <v>24.26622647714795</v>
       </c>
       <c r="F89">
-        <v>23.1440183176182</v>
+        <v>22.70172695074136</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>25.31719389368705</v>
+        <v>23.95494343482701</v>
       </c>
       <c r="C90">
-        <v>25.16743388707038</v>
+        <v>24.36604100352258</v>
       </c>
       <c r="D90">
-        <v>21.83541337654285</v>
+        <v>24.62657497436389</v>
       </c>
       <c r="E90">
-        <v>24.87663555375277</v>
+        <v>24.24982163676486</v>
       </c>
       <c r="F90">
-        <v>23.1653836681412</v>
+        <v>22.69991961044422</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>25.22939368706712</v>
+        <v>23.9459224663102</v>
       </c>
       <c r="C91">
-        <v>25.09391058938361</v>
+        <v>24.30044633688161</v>
       </c>
       <c r="D91">
-        <v>21.85647367817087</v>
+        <v>24.56407853061379</v>
       </c>
       <c r="E91">
-        <v>24.81284613760432</v>
+        <v>24.21908902329268</v>
       </c>
       <c r="F91">
-        <v>23.17755154212132</v>
+        <v>22.69244234593281</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>25.13684882842947</v>
+        <v>23.9255895855473</v>
       </c>
       <c r="C92">
-        <v>25.01376346244801</v>
+        <v>24.22671311102021</v>
       </c>
       <c r="D92">
-        <v>21.87029355111821</v>
+        <v>24.4921002273132</v>
       </c>
       <c r="E92">
-        <v>24.741745626376</v>
+        <v>24.17582577634466</v>
       </c>
       <c r="F92">
-        <v>23.18115111390336</v>
+        <v>22.67967612100654</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>25.04053688297872</v>
+        <v>23.89489413086472</v>
       </c>
       <c r="C93">
-        <v>24.92821548977866</v>
+        <v>24.14654173980762</v>
       </c>
       <c r="D93">
-        <v>21.87733636765564</v>
+        <v>24.41264210826069</v>
       </c>
       <c r="E93">
-        <v>24.66469106129671</v>
+        <v>24.12176907107368</v>
       </c>
       <c r="F93">
-        <v>23.17679460535812</v>
+        <v>22.66198742552476</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>24.94124441589209</v>
+        <v>23.85482764421596</v>
       </c>
       <c r="C94">
-        <v>24.83827304163556</v>
+        <v>24.0613084737893</v>
       </c>
       <c r="D94">
-        <v>21.87806227601954</v>
+        <v>24.32734212486672</v>
       </c>
       <c r="E94">
-        <v>24.58279831478697</v>
+        <v>24.05853326542112</v>
       </c>
       <c r="F94">
-        <v>23.1650709085228</v>
+        <v>22.63972475496526</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>24.8396015725462</v>
+        <v>23.8063828950161</v>
       </c>
       <c r="C95">
-        <v>24.74476287470148</v>
+        <v>23.972113075147</v>
       </c>
       <c r="D95">
-        <v>21.87292181448231</v>
+        <v>24.23751252617211</v>
       </c>
       <c r="E95">
-        <v>24.49698212913906</v>
+        <v>23.98757356327416</v>
       </c>
       <c r="F95">
-        <v>23.14653973226202</v>
+        <v>22.61321656219535</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>24.73611028811208</v>
+        <v>23.75052152328541</v>
       </c>
       <c r="C96">
-        <v>24.64836116301483</v>
+        <v>23.87982682208033</v>
       </c>
       <c r="D96">
-        <v>21.8623508916029</v>
+        <v>24.14418929921584</v>
       </c>
       <c r="E96">
-        <v>24.40798826873548</v>
+        <v>23.91017109206432</v>
       </c>
       <c r="F96">
-        <v>23.12172876656778</v>
+        <v>22.58277042709479</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>24.63117039284166</v>
+        <v>23.6881509317537</v>
       </c>
       <c r="C97">
-        <v>24.5496185912316</v>
+        <v>23.78513663487606</v>
       </c>
       <c r="D97">
-        <v>21.84676650372091</v>
+        <v>24.04818216005064</v>
       </c>
       <c r="E97">
-        <v>24.31642194716809</v>
+        <v>23.82743308470577</v>
       </c>
       <c r="F97">
-        <v>23.09113239574275</v>
+        <v>22.54867296425548</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>24.5251007789392</v>
+        <v>23.62010928474106</v>
       </c>
       <c r="C98">
-        <v>24.44898344879853</v>
+        <v>23.68858253925582</v>
       </c>
       <c r="D98">
-        <v>21.82656364624395</v>
+        <v>23.95012014219465</v>
       </c>
       <c r="E98">
-        <v>24.22277377393797</v>
+        <v>23.74030281718796</v>
       </c>
       <c r="F98">
-        <v>23.05521110600138</v>
+        <v>22.51119030943174</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>24.418155769533</v>
+        <v>23.54715762128232</v>
       </c>
       <c r="C99">
-        <v>24.34682095430552</v>
+        <v>23.59058840789877</v>
       </c>
       <c r="D99">
-        <v>21.80211352527692</v>
+        <v>23.85049008253544</v>
       </c>
       <c r="E99">
-        <v>24.12744187470775</v>
+        <v>23.64957502564193</v>
       </c>
       <c r="F99">
-        <v>23.01439190496442</v>
+        <v>22.47056893644587</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>24.31053785129624</v>
+        <v>23.46997735059653</v>
       </c>
       <c r="C100">
-        <v>24.24343005943582</v>
+        <v>23.49148710973951</v>
       </c>
       <c r="D100">
-        <v>21.77376265389676</v>
+        <v>23.74966791059801</v>
       </c>
       <c r="E100">
-        <v>24.03074956358477</v>
+        <v>23.55591366474119</v>
       </c>
       <c r="F100">
-        <v>22.9690693863762</v>
+        <v>22.42703669837401</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>24.20240819521125</v>
+        <v>23.3891716465108</v>
       </c>
       <c r="C101">
-        <v>24.13905289654253</v>
+        <v>23.39154032166444</v>
       </c>
       <c r="D101">
-        <v>21.7418326989494</v>
+        <v>23.64794395118346</v>
       </c>
       <c r="E101">
-        <v>23.93295693212392</v>
+        <v>23.45986985485978</v>
       </c>
       <c r="F101">
-        <v>22.91960727588531</v>
+        <v>22.38080397226178</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>24.09389542858752</v>
+        <v>23.30526958207346</v>
       </c>
       <c r="C102">
-        <v>24.03388652104602</v>
+        <v>23.29095417643584</v>
       </c>
       <c r="D102">
-        <v>21.70662089105464</v>
+        <v>23.54554246260436</v>
       </c>
       <c r="E102">
-        <v>23.8342749293866</v>
+        <v>23.36189895810504</v>
       </c>
       <c r="F102">
-        <v>22.86634019685123</v>
+        <v>22.33206485078909</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>23.98510255015409</v>
+        <v>23.21873181439043</v>
       </c>
       <c r="C103">
-        <v>23.928092547739</v>
+        <v>23.18989148007205</v>
       </c>
       <c r="D103">
-        <v>21.66840092687065</v>
+        <v>23.44263704910156</v>
       </c>
       <c r="E103">
-        <v>23.73487535548091</v>
+        <v>23.26237602130337</v>
       </c>
       <c r="F103">
-        <v>22.80957552680083</v>
+        <v>22.28099832248128</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>23.87611217520141</v>
+        <v>23.12995703492847</v>
       </c>
       <c r="C104">
-        <v>23.82180328029573</v>
+        <v>23.08848112990769</v>
       </c>
       <c r="D104">
-        <v>21.62742412887856</v>
+        <v>23.33936230444977</v>
       </c>
       <c r="E104">
-        <v>23.63489765309251</v>
+        <v>23.161609220558</v>
       </c>
       <c r="F104">
-        <v>22.74959531362801</v>
+        <v>22.2277694310826</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>23.76699061306764</v>
+        <v>23.03928862043518</v>
       </c>
       <c r="C105">
-        <v>23.71512687134123</v>
+        <v>22.98682553414916</v>
       </c>
       <c r="D105">
-        <v>21.58392076701502</v>
+        <v>23.235822840947</v>
       </c>
       <c r="E105">
-        <v>23.53445500677404</v>
+        <v>23.05985138076959</v>
       </c>
       <c r="F105">
-        <v>22.68665819357064</v>
+        <v>22.17253037786043</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>23.65779117714652</v>
+        <v>22.94702131923947</v>
       </c>
       <c r="C106">
-        <v>23.60815190931369</v>
+        <v>22.88500634235664</v>
       </c>
       <c r="D106">
-        <v>21.53810141306159</v>
+        <v>23.1321002414582</v>
       </c>
       <c r="E106">
-        <v>23.43363965668955</v>
+        <v>22.95730975904865</v>
       </c>
       <c r="F106">
-        <v>22.6210012269664</v>
+        <v>22.11542155644813</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>23.54855687189933</v>
+        <v>22.85340749457992</v>
       </c>
       <c r="C107">
-        <v>23.50095139595949</v>
+        <v>22.7830888486024</v>
       </c>
       <c r="D107">
-        <v>21.49015846193797</v>
+        <v>23.0282582637306</v>
       </c>
       <c r="E107">
-        <v>23.33252688957678</v>
+        <v>22.85415428225047</v>
       </c>
       <c r="F107">
-        <v>22.5528417404384</v>
+        <v>22.05657251103929</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>23.43932250459306</v>
+        <v>22.75866274104016</v>
       </c>
       <c r="C108">
-        <v>23.39358566949878</v>
+        <v>22.68112547385028</v>
       </c>
       <c r="D108">
-        <v>21.44026762776351</v>
+        <v>22.9243469309085</v>
       </c>
       <c r="E108">
-        <v>23.23117885279214</v>
+        <v>22.75052429829888</v>
       </c>
       <c r="F108">
-        <v>22.48237891882606</v>
+        <v>21.99610283812733</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>23.33011631573278</v>
+        <v>22.6629709299233</v>
       </c>
       <c r="C109">
-        <v>23.28610458705183</v>
+        <v>22.57915846582624</v>
       </c>
       <c r="D109">
-        <v>21.38858930374471</v>
+        <v>22.82040559808512</v>
       </c>
       <c r="E109">
-        <v>23.12964650584547</v>
+        <v>22.6465341575819</v>
       </c>
       <c r="F109">
-        <v>22.40979536102818</v>
+        <v>21.93412301550773</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>23.22096126500036</v>
+        <v>22.56648872992879</v>
       </c>
       <c r="C110">
-        <v>23.17854970594571</v>
+        <v>22.47722198643185</v>
       </c>
       <c r="D110">
-        <v>21.3352698625715</v>
+        <v>22.71646532740512</v>
       </c>
       <c r="E110">
-        <v>23.02797155491922</v>
+        <v>22.5422777810648</v>
       </c>
       <c r="F110">
-        <v>22.335258511402</v>
+        <v>21.87073516281463</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>23.11187606987184</v>
+        <v>22.46934958131309</v>
       </c>
       <c r="C111">
-        <v>23.0709553544214</v>
+        <v>22.37534375952599</v>
       </c>
       <c r="D111">
-        <v>21.28044288265045</v>
+        <v>22.61255070112619</v>
       </c>
       <c r="E111">
-        <v>22.92618830099574</v>
+        <v>22.43783240507874</v>
       </c>
       <c r="F111">
-        <v>22.25892200823471</v>
+        <v>21.80603373799715</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>23.00287604281219</v>
+        <v>22.37166712372694</v>
       </c>
       <c r="C112">
-        <v>22.96334982763237</v>
+        <v>22.27354636023417</v>
       </c>
       <c r="D112">
-        <v>21.22423029331568</v>
+        <v>22.50868123949087</v>
       </c>
       <c r="E112">
-        <v>22.8243250537574</v>
+        <v>22.33326163854758</v>
       </c>
       <c r="F112">
-        <v>22.18092689188649</v>
+        <v>21.74010617528419</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>22.89397375427418</v>
+        <v>22.27353813616277</v>
       </c>
       <c r="C113">
-        <v>22.85575678615698</v>
+        <v>22.17184828066457</v>
       </c>
       <c r="D113">
-        <v>21.16674344976712</v>
+        <v>22.40487255624109</v>
       </c>
       <c r="E113">
-        <v>22.72240528647925</v>
+        <v>22.22861795150854</v>
       </c>
       <c r="F113">
-        <v>22.10140271358984</v>
+        <v>21.67303346854223</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>22.78517955515448</v>
+        <v>22.17504506269828</v>
       </c>
       <c r="C114">
-        <v>22.74819600791229</v>
+        <v>22.07026474884297</v>
       </c>
       <c r="D114">
-        <v>21.10808410480784</v>
+        <v>22.30113717088954</v>
       </c>
       <c r="E114">
-        <v>22.62044862405543</v>
+        <v>22.12394469765756</v>
       </c>
       <c r="F114">
-        <v>22.02046854053899</v>
+        <v>21.60489070363709</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>22.67650199434896</v>
+        <v>22.07625817726704</v>
       </c>
       <c r="C115">
-        <v>22.64068423151506</v>
+        <v>21.96880832752063</v>
       </c>
       <c r="D115">
-        <v>21.04834529924826</v>
+        <v>22.1974851158088</v>
       </c>
       <c r="E115">
-        <v>22.51847141555019</v>
+        <v>22.01927776289675</v>
       </c>
       <c r="F115">
-        <v>21.93823388349065</v>
+        <v>21.53574753464434</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>22.56794815701127</v>
+        <v>21.97723742646198</v>
       </c>
       <c r="C116">
-        <v>22.53323550773353</v>
+        <v>21.8674894051748</v>
       </c>
       <c r="D116">
-        <v>20.98761216495855</v>
+        <v>22.09392443719114</v>
       </c>
       <c r="E116">
-        <v>22.41648729902551</v>
+        <v>21.91464691001443</v>
       </c>
       <c r="F116">
-        <v>21.85479954034724</v>
+        <v>21.46566864201981</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>22.4595239145549</v>
+        <v>21.87803399121905</v>
       </c>
       <c r="C117">
-        <v>22.42586166552337</v>
+        <v>21.76631657034484</v>
       </c>
       <c r="D117">
-        <v>20.9259626568697</v>
+        <v>21.99046162126006</v>
       </c>
       <c r="E117">
-        <v>22.31450768967803</v>
+        <v>21.81007687467057</v>
       </c>
       <c r="F117">
-        <v>21.77025836150541</v>
+        <v>21.39471410495289</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>22.35123419471625</v>
+        <v>21.77869160988162</v>
       </c>
       <c r="C118">
-        <v>22.31857269637006</v>
+        <v>21.66529700029689</v>
       </c>
       <c r="D118">
-        <v>20.86346821218693</v>
+        <v>21.88710193476677</v>
       </c>
       <c r="E118">
-        <v>22.21254217135342</v>
+        <v>21.70558825852861</v>
       </c>
       <c r="F118">
-        <v>21.68469594096457</v>
+        <v>21.32293986549016</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>22.24308310227116</v>
+        <v>21.67924770116213</v>
       </c>
       <c r="C119">
-        <v>22.21137706625038</v>
+        <v>21.56443672859766</v>
       </c>
       <c r="D119">
-        <v>20.80019436246789</v>
+        <v>21.78384967642343</v>
       </c>
       <c r="E119">
-        <v>22.1105988337891</v>
+        <v>21.60119825831403</v>
       </c>
       <c r="F119">
-        <v>21.59819124361845</v>
+        <v>21.25039795878661</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>22.13507415199206</v>
+        <v>21.57973431815996</v>
       </c>
       <c r="C120">
-        <v>22.10428196913881</v>
+        <v>21.46374084330603</v>
       </c>
       <c r="D120">
-        <v>20.73620126865366</v>
+        <v>21.68070835974049</v>
       </c>
       <c r="E120">
-        <v>22.00868453653899</v>
+        <v>21.49692126222716</v>
       </c>
       <c r="F120">
-        <v>21.51081717918233</v>
+        <v>21.17713683971011</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>22.02721032114133</v>
+        <v>21.48017894990909</v>
       </c>
       <c r="C121">
-        <v>21.99729355695798</v>
+        <v>21.36321364771946</v>
       </c>
       <c r="D121">
-        <v>20.67154421307917</v>
+        <v>21.57768085948483</v>
       </c>
       <c r="E121">
-        <v>21.90680509926963</v>
+        <v>21.39276933843873</v>
       </c>
       <c r="F121">
-        <v>21.42264110198285</v>
+        <v>21.10320171735134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>21.91949409352196</v>
+        <v>21.38060520354498</v>
       </c>
       <c r="C122">
-        <v>21.89041709879378</v>
+        <v>21.26285879462333</v>
       </c>
       <c r="D122">
-        <v>20.60627404292938</v>
+        <v>21.47476952046757</v>
       </c>
       <c r="E122">
-        <v>21.8049654739978</v>
+        <v>21.2887526054716</v>
       </c>
       <c r="F122">
-        <v>21.33372532742229</v>
+        <v>21.02863472378501</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>21.81192763381853</v>
+        <v>21.28103337427919</v>
       </c>
       <c r="C123">
-        <v>21.7836571321802</v>
+        <v>21.1626793853302</v>
       </c>
       <c r="D123">
-        <v>20.54043756970356</v>
+        <v>21.37197629344154</v>
       </c>
       <c r="E123">
-        <v>21.70316988953159</v>
+        <v>21.18487962415131</v>
       </c>
       <c r="F123">
-        <v>21.24412748256054</v>
+        <v>20.953475198717</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>21.70451275553455</v>
+        <v>21.18148092626606</v>
       </c>
       <c r="C124">
-        <v>21.67701756116868</v>
+        <v>21.06267810782586</v>
       </c>
       <c r="D124">
-        <v>20.47407792973472</v>
+        <v>21.26930276477929</v>
       </c>
       <c r="E124">
-        <v>21.60142196943897</v>
+        <v>21.08115764166708</v>
       </c>
       <c r="F124">
-        <v>21.15390106963877</v>
+        <v>20.87775991769225</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>21.59725103358697</v>
+        <v>21.08196291278153</v>
       </c>
       <c r="C125">
-        <v>21.57050175417718</v>
+        <v>20.96285725566856</v>
       </c>
       <c r="D125">
-        <v>20.40723491093688</v>
+        <v>21.16675032438241</v>
       </c>
       <c r="E125">
-        <v>21.49972481934703</v>
+        <v>20.97759278597509</v>
       </c>
       <c r="F125">
-        <v>21.06309562020023</v>
+        <v>20.80152326322714</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>21.49014384367706</v>
+        <v>20.9824924166028</v>
       </c>
       <c r="C126">
-        <v>21.46411263885553</v>
+        <v>20.8632188697423</v>
       </c>
       <c r="D126">
-        <v>20.3399452510081</v>
+        <v>21.06432008450225</v>
       </c>
       <c r="E126">
-        <v>21.39808115189346</v>
+        <v>20.87419034578101</v>
       </c>
       <c r="F126">
-        <v>20.9717570932187</v>
+        <v>20.72479740314899</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>21.38319239565866</v>
+        <v>20.88308071660479</v>
       </c>
       <c r="C127">
-        <v>21.35785274429524</v>
+        <v>20.76376471286942</v>
       </c>
       <c r="D127">
-        <v>20.27224289763955</v>
+        <v>20.96201301355657</v>
       </c>
       <c r="E127">
-        <v>21.29649326318475</v>
+        <v>20.77095477264787</v>
       </c>
       <c r="F127">
-        <v>20.87992822601541</v>
+        <v>20.64761248302712</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>21.27639775040642</v>
+        <v>20.78373758646705</v>
       </c>
       <c r="C128">
-        <v>21.25172433674059</v>
+        <v>20.66449632269932</v>
       </c>
       <c r="D128">
-        <v>20.20415925270694</v>
+        <v>20.85982991778369</v>
       </c>
       <c r="E128">
-        <v>21.19496327284048</v>
+        <v>20.66788987805378</v>
       </c>
       <c r="F128">
-        <v>20.78764865381821</v>
+        <v>20.56999673819579</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>21.16976086637686</v>
+        <v>20.68447154999887</v>
       </c>
       <c r="C129">
-        <v>21.14572932576978</v>
+        <v>20.56541508916654</v>
       </c>
       <c r="D129">
-        <v>20.13572339029162</v>
+        <v>20.75777146513882</v>
       </c>
       <c r="E129">
-        <v>21.09349291391655</v>
+        <v>20.5649989453236</v>
       </c>
       <c r="F129">
-        <v>20.6949552849761</v>
+        <v>20.49197664449622</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>21.06328258665253</v>
+        <v>20.5852899603072</v>
       </c>
       <c r="C130">
-        <v>21.03986953861132</v>
+        <v>20.46652220664189</v>
       </c>
       <c r="D130">
-        <v>20.06696225369632</v>
+        <v>20.65583823839826</v>
       </c>
       <c r="E130">
-        <v>20.99208384470986</v>
+        <v>20.46228481196325</v>
       </c>
       <c r="F130">
-        <v>20.60188247261198</v>
+        <v>20.41357705922391</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>20.95696367284216</v>
+        <v>20.48619923664112</v>
       </c>
       <c r="C131">
-        <v>20.93414645078132</v>
+        <v>20.36781876545536</v>
       </c>
       <c r="D131">
-        <v>19.99790081471521</v>
+        <v>20.55403072954299</v>
       </c>
       <c r="E131">
-        <v>20.8907374145417</v>
+        <v>20.3597499451934</v>
       </c>
       <c r="F131">
-        <v>20.50846220834022</v>
+        <v>20.33482131984734</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>20.8508048179388</v>
+        <v>20.38720499379559</v>
       </c>
       <c r="C132">
-        <v>20.82856153534454</v>
+        <v>20.26930573847227</v>
       </c>
       <c r="D132">
-        <v>19.92856229330741</v>
+        <v>20.45234936910831</v>
       </c>
       <c r="E132">
-        <v>20.78945489889314</v>
+        <v>20.25739649718071</v>
       </c>
       <c r="F132">
-        <v>20.41472436409732</v>
+        <v>20.25573135507408</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>20.74480665491684</v>
+        <v>20.28831215352216</v>
       </c>
       <c r="C133">
-        <v>20.72311597898888</v>
+        <v>20.17098401364082</v>
       </c>
       <c r="D133">
-        <v>19.85896821667524</v>
+        <v>20.35079454167576</v>
       </c>
       <c r="E133">
-        <v>20.6882373819498</v>
+        <v>20.15522637251517</v>
       </c>
       <c r="F133">
-        <v>20.3206967938169</v>
+        <v>20.17632779574021</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>20.63896976837228</v>
+        <v>20.18952502718645</v>
       </c>
       <c r="C134">
-        <v>20.61781094620309</v>
+        <v>20.07285441145404</v>
       </c>
       <c r="D134">
-        <v>19.78913869192119</v>
+        <v>20.24936657911924</v>
       </c>
       <c r="E134">
-        <v>20.58708586351286</v>
+        <v>20.05324123573601</v>
       </c>
       <c r="F134">
-        <v>20.22640550509167</v>
+        <v>20.09663005134568</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>20.53329470657034</v>
+        <v>20.09084740899243</v>
       </c>
       <c r="C135">
-        <v>20.51264742607956</v>
+        <v>19.97491767844529</v>
       </c>
       <c r="D135">
-        <v>19.71909236118243</v>
+        <v>20.1480657889201</v>
       </c>
       <c r="E135">
-        <v>20.48600123909931</v>
+        <v>19.95144256500674</v>
       </c>
       <c r="F135">
-        <v>20.1318748370625</v>
+        <v>20.01665639472139</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>20.42778198130155</v>
+        <v>19.99228264781788</v>
       </c>
       <c r="C136">
-        <v>20.40762635345235</v>
+        <v>19.87717452179639</v>
       </c>
       <c r="D136">
-        <v>19.64884665979646</v>
+        <v>20.04689243715346</v>
       </c>
       <c r="E136">
-        <v>20.38498432883409</v>
+        <v>19.84983168164747</v>
       </c>
       <c r="F136">
-        <v>20.03712752391473</v>
+        <v>19.93642404930214</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>20.32243207643903</v>
+        <v>19.89383369042986</v>
       </c>
       <c r="C137">
-        <v>20.30274856937801</v>
+        <v>19.77962558811663</v>
       </c>
       <c r="D137">
-        <v>19.57841779875537</v>
+        <v>19.9458467691718</v>
       </c>
       <c r="E137">
-        <v>20.28403589087949</v>
+        <v>19.74840976914383</v>
       </c>
       <c r="F137">
-        <v>19.94218486401973</v>
+        <v>19.85594924997473</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>20.21724545362342</v>
+        <v>19.79550314892107</v>
       </c>
       <c r="C138">
-        <v>20.19801486571926</v>
+        <v>19.68227149223337</v>
       </c>
       <c r="D138">
-        <v>19.50782091712763</v>
+        <v>19.84492900749125</v>
       </c>
       <c r="E138">
-        <v>20.18315661824767</v>
+        <v>19.64717789008003</v>
       </c>
       <c r="F138">
-        <v>19.84706681251856</v>
+        <v>19.77524731014703</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>20.11222255289564</v>
+        <v>19.69729333849657</v>
       </c>
       <c r="C139">
-        <v>20.09342596700677</v>
+        <v>19.58511281040458</v>
       </c>
       <c r="D139">
-        <v>19.4370701614496</v>
+        <v>19.74413935790226</v>
       </c>
       <c r="E139">
-        <v>20.08234716646608</v>
+        <v>19.54613704043275</v>
       </c>
       <c r="F139">
-        <v>19.75179206883145</v>
+        <v>19.69433267918892</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>20.0073637976978</v>
+        <v>19.59920632461585</v>
       </c>
       <c r="C140">
-        <v>19.98898257400227</v>
+        <v>19.48815009133824</v>
       </c>
       <c r="D140">
-        <v>19.36617873478786</v>
+        <v>19.643478013563</v>
       </c>
       <c r="E140">
-        <v>19.98160813338943</v>
+        <v>19.44528808402039</v>
       </c>
       <c r="F140">
-        <v>19.65637819664114</v>
+        <v>19.61321901143457</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>19.90266960053711</v>
+        <v>19.50124396463119</v>
       </c>
       <c r="C141">
-        <v>19.8846853244428</v>
+        <v>19.39138386119581</v>
       </c>
       <c r="D141">
-        <v>19.29515901945932</v>
+        <v>19.54294515700667</v>
       </c>
       <c r="E141">
-        <v>19.88094009216297</v>
+        <v>19.34463189675007</v>
       </c>
       <c r="F141">
-        <v>19.56084167973839</v>
+        <v>19.53191921446821</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>19.79814036189933</v>
+        <v>19.40340789946778</v>
       </c>
       <c r="C142">
-        <v>19.78053484667721</v>
+        <v>19.29481462435435</v>
       </c>
       <c r="D142">
-        <v>19.22402258462434</v>
+        <v>19.44254096202851</v>
       </c>
       <c r="E142">
-        <v>19.78034357450916</v>
+        <v>19.24416922141878</v>
       </c>
       <c r="F142">
-        <v>19.46519800544851</v>
+        <v>19.4504454739195</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>19.69377647386583</v>
+        <v>19.30569967644909</v>
       </c>
       <c r="C143">
-        <v>19.67653171793534</v>
+        <v>19.19844287040452</v>
       </c>
       <c r="D143">
-        <v>19.15278030159838</v>
+        <v>19.34226559672706</v>
       </c>
       <c r="E143">
-        <v>19.67981909039759</v>
+        <v>19.14390080679734</v>
       </c>
       <c r="F143">
-        <v>19.36946175322083</v>
+        <v>19.36880938048576</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>19.58957832744215</v>
+        <v>19.20812059981435</v>
       </c>
       <c r="C144">
-        <v>19.57267650527938</v>
+        <v>19.10226907289175</v>
       </c>
       <c r="D144">
-        <v>19.08144234484617</v>
+        <v>19.24211922202065</v>
       </c>
       <c r="E144">
-        <v>19.57936712502487</v>
+        <v>19.04382734234434</v>
       </c>
       <c r="F144">
-        <v>19.27364663157028</v>
+        <v>19.28702181712981</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>19.48554629875538</v>
+        <v>19.11067196421051</v>
       </c>
       <c r="C145">
-        <v>19.46896974402467</v>
+        <v>19.00629369358145</v>
       </c>
       <c r="D145">
-        <v>19.01001828082994</v>
+        <v>19.14210199592181</v>
       </c>
       <c r="E145">
-        <v>19.47898814675421</v>
+        <v>18.94394946270994</v>
       </c>
       <c r="F145">
-        <v>19.17776555828397</v>
+        <v>19.20509320121688</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>19.38168077304087</v>
+        <v>19.01335484052836</v>
       </c>
       <c r="C146">
-        <v>19.36541195663884</v>
+        <v>18.91051718405888</v>
       </c>
       <c r="D146">
-        <v>18.93851708775733</v>
+        <v>19.04221407221638</v>
       </c>
       <c r="E146">
-        <v>19.37868260720768</v>
+        <v>18.8442678013302</v>
       </c>
       <c r="F146">
-        <v>19.08183071223997</v>
+        <v>19.12303329551079</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>19.2779821200416</v>
+        <v>18.91617029070636</v>
       </c>
       <c r="C147">
-        <v>19.26200364800392</v>
+        <v>18.81493998623843</v>
       </c>
       <c r="D147">
-        <v>18.8669472028567</v>
+        <v>18.94245560290066</v>
       </c>
       <c r="E147">
-        <v>19.27845094634706</v>
+        <v>18.74478293767537</v>
       </c>
       <c r="F147">
-        <v>18.9858535754223</v>
+        <v>19.0408514420804</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>19.17445071738933</v>
+        <v>18.81911922975707</v>
       </c>
       <c r="C148">
-        <v>19.15874531334775</v>
+        <v>18.71956253561743</v>
       </c>
       <c r="D148">
-        <v>18.7953165734915</v>
+        <v>18.84282673871414</v>
       </c>
       <c r="E148">
-        <v>19.17829359195055</v>
+        <v>18.64549544785092</v>
       </c>
       <c r="F148">
-        <v>18.88984498532944</v>
+        <v>18.9585564505452</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>19.07108693728187</v>
+        <v>18.72220253438829</v>
       </c>
       <c r="C149">
-        <v>19.05563743533093</v>
+        <v>18.62438526123921</v>
       </c>
       <c r="D149">
-        <v>18.72363266876518</v>
+        <v>18.74332762961057</v>
       </c>
       <c r="E149">
-        <v>19.07821096301688</v>
+        <v>18.54640588221727</v>
       </c>
       <c r="F149">
-        <v>18.79381517871595</v>
+        <v>18.87615669780707</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>18.96789115192201</v>
+        <v>18.62542100113794</v>
       </c>
       <c r="C150">
-        <v>18.95268049283196</v>
+        <v>18.52940858769963</v>
       </c>
       <c r="D150">
-        <v>18.65190254079573</v>
+        <v>18.64395842584551</v>
       </c>
       <c r="E150">
-        <v>18.97820347087476</v>
+        <v>18.44751478331892</v>
       </c>
       <c r="F150">
-        <v>18.69777385725068</v>
+        <v>18.79366014041129</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>18.86486373552691</v>
+        <v>18.52877538131019</v>
       </c>
       <c r="C151">
-        <v>18.84987495365557</v>
+        <v>18.43463293592863</v>
       </c>
       <c r="D151">
-        <v>18.58013282655102</v>
+        <v>18.54471927787045</v>
       </c>
       <c r="E151">
-        <v>18.87827152008625</v>
+        <v>18.34882267654041</v>
       </c>
       <c r="F151">
-        <v>18.60173014316149</v>
+        <v>18.7110743275117</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>18.76200506260629</v>
+        <v>18.43226637548343</v>
       </c>
       <c r="C152">
-        <v>18.74722128526071</v>
+        <v>18.34005872349018</v>
       </c>
       <c r="D152">
-        <v>18.50832980034389</v>
+        <v>18.44561033652135</v>
       </c>
       <c r="E152">
-        <v>18.77841551122861</v>
+        <v>18.25033008718926</v>
       </c>
       <c r="F152">
-        <v>18.50569277415385</v>
+        <v>18.62840645268988</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>18.65931551064274</v>
+        <v>18.33589464695671</v>
       </c>
       <c r="C153">
-        <v>18.64471994700259</v>
+        <v>18.24568636634813</v>
       </c>
       <c r="D153">
-        <v>18.4364993788683</v>
+        <v>18.34663175455715</v>
       </c>
       <c r="E153">
-        <v>18.67863584059702</v>
+        <v>18.1520375274318</v>
       </c>
       <c r="F153">
-        <v>18.40966992233201</v>
+        <v>18.54566333589691</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>18.55679545849766</v>
+        <v>18.23966082712795</v>
       </c>
       <c r="C154">
-        <v>18.5423713984376</v>
+        <v>18.15151627815045</v>
       </c>
       <c r="D154">
-        <v>18.36464715818393</v>
+        <v>18.24778368623405</v>
       </c>
       <c r="E154">
-        <v>18.57893290273465</v>
+        <v>18.0539455051097</v>
       </c>
       <c r="F154">
-        <v>18.31366941806687</v>
+        <v>18.46285149613269</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>18.45444528943781</v>
+        <v>18.14356550778175</v>
       </c>
       <c r="C155">
-        <v>18.44017609521844</v>
+        <v>18.05754887164557</v>
       </c>
       <c r="D155">
-        <v>18.29277842936423</v>
+        <v>18.14906628654096</v>
       </c>
       <c r="E155">
-        <v>18.47930708996414</v>
+        <v>17.95605452655986</v>
       </c>
       <c r="F155">
-        <v>18.21769867757722</v>
+        <v>18.37997710542496</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>18.35226538843783</v>
+        <v>18.04760926681282</v>
       </c>
       <c r="C156">
-        <v>18.33813449333396</v>
+        <v>17.96378455872821</v>
       </c>
       <c r="D156">
-        <v>18.2208981958367</v>
+        <v>18.0504797150018</v>
       </c>
       <c r="E156">
-        <v>18.37975879463616</v>
+        <v>17.85836508797793</v>
       </c>
       <c r="F156">
-        <v>18.12176469189605</v>
+        <v>18.29704607584464</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>18.25025614496336</v>
+        <v>17.9517926436675</v>
       </c>
       <c r="C157">
-        <v>18.23624704799537</v>
+        <v>17.87022375200655</v>
       </c>
       <c r="D157">
-        <v>18.14901120145413</v>
+        <v>17.9520241306311</v>
       </c>
       <c r="E157">
-        <v>18.28028840824745</v>
+        <v>17.76087768908793</v>
       </c>
       <c r="F157">
-        <v>18.02587417647545</v>
+        <v>18.2140640132999</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>18.14841795212651</v>
+        <v>17.85611616999844</v>
       </c>
       <c r="C158">
-        <v>18.13451421584786</v>
+        <v>17.77686686238523</v>
       </c>
       <c r="D158">
-        <v>18.07712192574052</v>
+        <v>17.85369969703079</v>
       </c>
       <c r="E158">
-        <v>18.18089632346082</v>
+        <v>17.66359282339629</v>
       </c>
       <c r="F158">
-        <v>17.93003344707659</v>
+        <v>18.13103627694442</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>18.04675120630831</v>
+        <v>17.7605803503312</v>
       </c>
       <c r="C159">
-        <v>18.03293645417496</v>
+        <v>17.68371430379162</v>
       </c>
       <c r="D159">
-        <v>18.00523463905005</v>
+        <v>17.75550658027331</v>
       </c>
       <c r="E159">
-        <v>18.08158293349955</v>
+        <v>17.5665109858218</v>
       </c>
       <c r="F159">
-        <v>17.83424856476289</v>
+        <v>18.04796797222753</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>17.94525630904784</v>
+        <v>17.66518568046841</v>
       </c>
       <c r="C160">
-        <v>17.93151422317255</v>
+        <v>17.59076648999739</v>
       </c>
       <c r="D160">
-        <v>17.93335338459723</v>
+        <v>17.65744494781423</v>
       </c>
       <c r="E160">
-        <v>17.98234863345806</v>
+        <v>17.46963267060975</v>
       </c>
       <c r="F160">
-        <v>17.7385252770257</v>
+        <v>17.96486396563711</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>17.84393366554524</v>
+        <v>17.56993263979367</v>
       </c>
       <c r="C161">
-        <v>17.83024798442744</v>
+        <v>17.49802383469225</v>
       </c>
       <c r="D161">
-        <v>17.86148198163805</v>
+        <v>17.55951497174188</v>
       </c>
       <c r="E161">
-        <v>17.88319382035965</v>
+        <v>17.37295837315108</v>
       </c>
       <c r="F161">
-        <v>17.642869066709</v>
+        <v>17.88172891046156</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>17.74278368615601</v>
+        <v>17.47482170069788</v>
       </c>
       <c r="C162">
-        <v>17.72913820341426</v>
+        <v>17.405486755484</v>
       </c>
       <c r="D162">
-        <v>17.78962411580287</v>
+        <v>17.46171682626258</v>
       </c>
       <c r="E162">
-        <v>17.78411889371893</v>
+        <v>17.27648858956769</v>
       </c>
       <c r="F162">
-        <v>17.54728517576061</v>
+        <v>17.79856723898142</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>17.64180678588859</v>
+        <v>17.37985332396482</v>
       </c>
       <c r="C163">
-        <v>17.62818534797299</v>
+        <v>17.31315566866234</v>
       </c>
       <c r="D163">
-        <v>17.7177832373499</v>
+        <v>17.36405068915713</v>
       </c>
       <c r="E163">
-        <v>17.68512425606606</v>
+        <v>17.18022381851737</v>
       </c>
       <c r="F163">
-        <v>17.45177858678731</v>
+        <v>17.71538319775045</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>17.5410033849475</v>
+        <v>17.28502796649346</v>
       </c>
       <c r="C164">
-        <v>17.52738989025907</v>
+        <v>17.22103099397761</v>
       </c>
       <c r="D164">
-        <v>17.64596264753438</v>
+        <v>17.26651674162932</v>
       </c>
       <c r="E164">
-        <v>17.58621031300002</v>
+        <v>17.08416456060035</v>
       </c>
       <c r="F164">
-        <v>17.35635409280377</v>
+        <v>17.63218083123081</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>17.44037390871744</v>
+        <v>17.19034607750165</v>
       </c>
       <c r="C165">
-        <v>17.42675230593044</v>
+        <v>17.1291131527249</v>
       </c>
       <c r="D165">
-        <v>17.57416552970777</v>
+        <v>17.16911516835697</v>
       </c>
       <c r="E165">
-        <v>17.48737747394189</v>
+        <v>16.98831131813969</v>
       </c>
       <c r="F165">
-        <v>17.26101624193423</v>
+        <v>17.54896402055122</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>17.33991878802482</v>
+        <v>17.09580810228585</v>
       </c>
       <c r="C166">
-        <v>17.32627307529501</v>
+        <v>17.03740256729943</v>
       </c>
       <c r="D166">
-        <v>17.50239483635762</v>
+        <v>17.07184615774918</v>
       </c>
       <c r="E166">
-        <v>17.38862615194044</v>
+        <v>16.89266459745056</v>
       </c>
       <c r="F166">
-        <v>17.1657694145016</v>
+        <v>17.46573646401721</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>17.23963845934595</v>
+        <v>17.00141448332482</v>
       </c>
       <c r="C167">
-        <v>17.22595268305946</v>
+        <v>16.94589966309347</v>
       </c>
       <c r="D167">
-        <v>17.43065345251634</v>
+        <v>16.97470990187952</v>
       </c>
       <c r="E167">
-        <v>17.28995676436213</v>
+        <v>16.79722490614714</v>
       </c>
       <c r="F167">
-        <v>17.07061779567872</v>
+        <v>17.38250171090163</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>17.1395333646165</v>
+        <v>16.90716565888882</v>
       </c>
       <c r="C168">
-        <v>17.12579161906356</v>
+        <v>16.8546048672716</v>
       </c>
       <c r="D168">
-        <v>17.35894411163247</v>
+        <v>16.87770659681321</v>
       </c>
       <c r="E168">
-        <v>17.19136973269252</v>
+        <v>16.70199275631061</v>
       </c>
       <c r="F168">
-        <v>16.97556538601096</v>
+        <v>17.29926315267238</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>17.0396039519045</v>
+        <v>16.81306206735452</v>
       </c>
       <c r="C169">
-        <v>17.02579037810724</v>
+        <v>16.76351860945128</v>
       </c>
       <c r="D169">
-        <v>17.28726939592742</v>
+        <v>16.78083644259943</v>
       </c>
       <c r="E169">
-        <v>17.09286548354421</v>
+        <v>16.60696866252505</v>
       </c>
       <c r="F169">
-        <v>16.88061604148412</v>
+        <v>17.21602403675223</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>16.93985067489819</v>
+        <v>16.71910414457125</v>
       </c>
       <c r="C170">
-        <v>16.92594946065081</v>
+        <v>16.67264132179948</v>
       </c>
       <c r="D170">
-        <v>17.21563180522422</v>
+        <v>16.68409964311425</v>
       </c>
       <c r="E170">
-        <v>16.99444444807868</v>
+        <v>16.51215314338199</v>
       </c>
       <c r="F170">
-        <v>16.78577344142395</v>
+        <v>17.13278747708992</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>16.84027399359655</v>
+        <v>16.62529232750705</v>
       </c>
       <c r="C171">
-        <v>16.8262693725402</v>
+        <v>16.58197343872714</v>
       </c>
       <c r="D171">
-        <v>17.14403371503176</v>
+        <v>16.58749640667909</v>
       </c>
       <c r="E171">
-        <v>16.89610706248171</v>
+        <v>16.41754672110941</v>
       </c>
       <c r="F171">
-        <v>16.6910411388494</v>
+        <v>17.04955645190177</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>16.7408743740707</v>
+        <v>16.53162705269215</v>
       </c>
       <c r="C172">
-        <v>16.7267506257027</v>
+        <v>16.49151539764145</v>
       </c>
       <c r="D172">
-        <v>17.07247739455628</v>
+        <v>16.49102694561828</v>
       </c>
       <c r="E172">
-        <v>16.79785376909402</v>
+        <v>16.32314992199518</v>
       </c>
       <c r="F172">
-        <v>16.59642253790902</v>
+        <v>16.966333822705</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>16.6416522887168</v>
+        <v>16.43810875870674</v>
       </c>
       <c r="C173">
-        <v>16.6273937379005</v>
+        <v>16.40126763833895</v>
       </c>
       <c r="D173">
-        <v>17.00096503056006</v>
+        <v>16.3946914766415</v>
       </c>
       <c r="E173">
-        <v>16.69968501476652</v>
+        <v>16.22896327638658</v>
       </c>
       <c r="F173">
-        <v>16.50192091760387</v>
+        <v>16.88312232627949</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>16.54260821638642</v>
+        <v>16.34473788482973</v>
       </c>
       <c r="C174">
-        <v>16.52819923328596</v>
+        <v>16.31123060330655</v>
       </c>
       <c r="D174">
-        <v>16.92949870230964</v>
+        <v>16.29849022089817</v>
       </c>
       <c r="E174">
-        <v>16.60160125262803</v>
+        <v>16.13498731891244</v>
       </c>
       <c r="F174">
-        <v>16.40753943892417</v>
+        <v>16.79992459539276</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>16.44374264247029</v>
+        <v>16.25151487356752</v>
       </c>
       <c r="C175">
-        <v>16.42916764221879</v>
+        <v>16.22140473809976</v>
       </c>
       <c r="D175">
-        <v>16.85808041431326</v>
+        <v>16.20242340399827</v>
       </c>
       <c r="E175">
-        <v>16.50360294216356</v>
+        <v>16.04122258867564</v>
       </c>
       <c r="F175">
-        <v>16.31328113922304</v>
+        <v>16.71674314911184</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>16.34505605904329</v>
+        <v>16.15844016891822</v>
       </c>
       <c r="C176">
-        <v>16.33029950187613</v>
+        <v>16.13179049059847</v>
       </c>
       <c r="D176">
-        <v>16.78671209490951</v>
+        <v>16.10649125615027</v>
       </c>
       <c r="E176">
-        <v>16.40569054784415</v>
+        <v>15.94766962895634</v>
       </c>
       <c r="F176">
-        <v>16.21914896094398</v>
+        <v>16.63358041222839</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>16.24654896494403</v>
+        <v>16.06551421870034</v>
       </c>
       <c r="C177">
-        <v>16.23159535625658</v>
+        <v>16.04238831192785</v>
       </c>
       <c r="D177">
-        <v>16.7153955748935</v>
+        <v>16.01069401228921</v>
       </c>
       <c r="E177">
-        <v>16.30786454140776</v>
+        <v>15.85432898793403</v>
       </c>
       <c r="F177">
-        <v>16.12514572977764</v>
+        <v>16.5504387091246</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>16.14822186594438</v>
+        <v>15.97273747350006</v>
       </c>
       <c r="C178">
-        <v>16.13305575582782</v>
+        <v>15.95319865594593</v>
       </c>
       <c r="D178">
-        <v>16.64413263572441</v>
+        <v>15.91503191212333</v>
       </c>
       <c r="E178">
-        <v>16.21012540080103</v>
+        <v>15.7612012180354</v>
       </c>
       <c r="F178">
-        <v>16.03127418828209</v>
+        <v>16.46732027403724</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>16.05007527477974</v>
+        <v>15.88011038766431</v>
       </c>
       <c r="C179">
-        <v>16.03468125878172</v>
+        <v>15.86422197934692</v>
       </c>
       <c r="D179">
-        <v>16.57292498253289</v>
+        <v>15.81950520023424</v>
       </c>
       <c r="E179">
-        <v>16.11247361034521</v>
+        <v>15.66828687667155</v>
       </c>
       <c r="F179">
-        <v>15.93753698242509</v>
+        <v>16.38422725484969</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>15.95210971133465</v>
+        <v>15.78763341954961</v>
       </c>
       <c r="C180">
-        <v>15.93647243054823</v>
+        <v>15.77545874191031</v>
       </c>
       <c r="D180">
-        <v>16.50177424545355</v>
+        <v>15.72411412621322</v>
       </c>
       <c r="E180">
-        <v>16.01490966148146</v>
+        <v>15.5755865258424</v>
       </c>
       <c r="F180">
-        <v>15.84393667035927</v>
+        <v>16.30116171391071</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>15.85432570271026</v>
+        <v>15.69530703155667</v>
       </c>
       <c r="C181">
-        <v>15.83842984322433</v>
+        <v>15.68690940629323</v>
       </c>
       <c r="D181">
-        <v>16.43068200912867</v>
+        <v>15.62885894470951</v>
       </c>
       <c r="E181">
-        <v>15.91743405257575</v>
+        <v>15.48310073248413</v>
       </c>
       <c r="F181">
-        <v>15.75047573601179</v>
+        <v>16.21812563781986</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>15.75672378332986</v>
+        <v>15.60313169079256</v>
       </c>
       <c r="C182">
-        <v>15.74055407733868</v>
+        <v>15.59857443822746</v>
       </c>
       <c r="D182">
-        <v>16.35964979049232</v>
+        <v>15.5337399155478</v>
       </c>
       <c r="E182">
-        <v>15.82004728918655</v>
+        <v>15.39083006841349</v>
       </c>
       <c r="F182">
-        <v>15.65715657849512</v>
+        <v>16.13512093371261</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>15.65930449508068</v>
+        <v>15.51110786892662</v>
       </c>
       <c r="C183">
-        <v>15.64284572099584</v>
+        <v>15.5104543064667</v>
       </c>
       <c r="D183">
-        <v>16.28867905185738</v>
+        <v>15.43875730382165</v>
       </c>
       <c r="E183">
-        <v>15.72274988425269</v>
+        <v>15.29877511043758</v>
       </c>
       <c r="F183">
-        <v>15.56398153319204</v>
+        <v>16.05214944091522</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>15.56206838739907</v>
+        <v>15.41923604283595</v>
       </c>
       <c r="C184">
-        <v>15.54530536956698</v>
+        <v>15.42254948276727</v>
       </c>
       <c r="D184">
-        <v>16.21777121014667</v>
+        <v>15.34391137999299</v>
       </c>
       <c r="E184">
-        <v>15.62554235825752</v>
+        <v>15.20693644040676</v>
       </c>
       <c r="F184">
-        <v>15.4709528615869</v>
+        <v>15.96921292589632</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>15.46501601738891</v>
+        <v>15.32751669438995</v>
       </c>
       <c r="C185">
-        <v>15.44793362705651</v>
+        <v>15.33486044205016</v>
       </c>
       <c r="D185">
-        <v>16.14692762404687</v>
+        <v>15.24920242000115</v>
       </c>
       <c r="E185">
-        <v>15.52842523941728</v>
+        <v>15.11531464523759</v>
       </c>
       <c r="F185">
-        <v>15.37807276374641</v>
+        <v>15.88631309338177</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>15.36814794995145</v>
+        <v>15.23595031114497</v>
       </c>
       <c r="C186">
-        <v>15.35073110547505</v>
+        <v>15.24738766222845</v>
       </c>
       <c r="D186">
-        <v>16.07614961325612</v>
+        <v>15.1546307053337</v>
       </c>
       <c r="E186">
-        <v>15.43139906387299</v>
+        <v>15.02391031704011</v>
       </c>
       <c r="F186">
-        <v>15.28534337994335</v>
+        <v>15.8034515801671</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>15.27146475786988</v>
+        <v>15.14453738601049</v>
       </c>
       <c r="C187">
-        <v>15.25369842493406</v>
+        <v>15.1601316243576</v>
       </c>
       <c r="D187">
-        <v>16.0054384527688</v>
+        <v>15.06019652318653</v>
       </c>
       <c r="E187">
-        <v>15.33446437578766</v>
+        <v>14.93272405302255</v>
       </c>
       <c r="F187">
-        <v>15.19276678969622</v>
+        <v>15.72062996695983</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>15.17496702194867</v>
+        <v>15.05327841797011</v>
       </c>
       <c r="C188">
-        <v>15.15683621418278</v>
+        <v>15.07309281263175</v>
       </c>
       <c r="D188">
-        <v>15.93479536994154</v>
+        <v>14.9659001665286</v>
       </c>
       <c r="E188">
-        <v>15.2376217276144</v>
+        <v>14.84175645571205</v>
       </c>
       <c r="F188">
-        <v>15.10034502398366</v>
+        <v>15.63784978084588</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>15.07865533111811</v>
+        <v>14.96217391158422</v>
       </c>
       <c r="C189">
-        <v>15.06014511051258</v>
+        <v>14.98627171426785</v>
       </c>
       <c r="D189">
-        <v>15.86422156063974</v>
+        <v>14.87174193420238</v>
       </c>
       <c r="E189">
-        <v>15.14087168024404</v>
+        <v>14.75100813280975</v>
       </c>
       <c r="F189">
-        <v>15.0080800567341</v>
+        <v>15.55511248957256</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>14.98253028254639</v>
+        <v>14.87122437798054</v>
       </c>
       <c r="C190">
-        <v>14.96362575998241</v>
+        <v>14.899668819705</v>
       </c>
       <c r="D190">
-        <v>15.79371817974951</v>
+        <v>14.77772213112168</v>
       </c>
       <c r="E190">
-        <v>15.0442148031708</v>
+        <v>14.66047969738764</v>
       </c>
       <c r="F190">
-        <v>14.91597381929758</v>
+        <v>15.47241950248427</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>14.8865924817684</v>
+        <v>14.7804303346957</v>
       </c>
       <c r="C191">
-        <v>14.86727881752271</v>
+        <v>14.81328462246356</v>
       </c>
       <c r="D191">
-        <v>15.72328634413614</v>
+        <v>14.68384106825111</v>
       </c>
       <c r="E191">
-        <v>14.94765167467733</v>
+        <v>14.57017176782089</v>
       </c>
       <c r="F191">
-        <v>14.82402819493301</v>
+        <v>15.38977219656678</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>14.79084254278426</v>
+        <v>14.68979230523746</v>
       </c>
       <c r="C192">
-        <v>14.77110494710934</v>
+        <v>14.72711961919792</v>
       </c>
       <c r="D192">
-        <v>15.65292714307479</v>
+        <v>14.5900990628442</v>
       </c>
       <c r="E192">
-        <v>14.85118288203622</v>
+        <v>14.48008496787289</v>
       </c>
       <c r="F192">
-        <v>14.73224502376565</v>
+        <v>15.30717189914485</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>14.69528108820561</v>
+        <v>14.59931082011598</v>
       </c>
       <c r="C193">
-        <v>14.6751048219442</v>
+        <v>14.64117430973745</v>
       </c>
       <c r="D193">
-        <v>15.58264162848415</v>
+        <v>14.49649643850579</v>
       </c>
       <c r="E193">
-        <v>14.75480902178001</v>
+        <v>14.39021992672095</v>
       </c>
       <c r="F193">
-        <v>14.64062610800071</v>
+        <v>15.22461986440294</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>14.59990874934098</v>
+        <v>14.50898641706556</v>
       </c>
       <c r="C194">
-        <v>14.57927912454726</v>
+        <v>14.55544919700957</v>
       </c>
       <c r="D194">
-        <v>15.51243082403553</v>
+        <v>14.40303352528978</v>
       </c>
       <c r="E194">
-        <v>14.6585306996991</v>
+        <v>14.30057727898122</v>
       </c>
       <c r="F194">
-        <v>14.54917320829013</v>
+        <v>15.14211733669841</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>14.50472616635443</v>
+        <v>14.41881964030573</v>
       </c>
       <c r="C195">
-        <v>14.48362854693512</v>
+        <v>14.46994478713166</v>
       </c>
       <c r="D195">
-        <v>15.44229572687303</v>
+        <v>14.30971065991784</v>
       </c>
       <c r="E195">
-        <v>14.56234853123248</v>
+        <v>14.21115766475098</v>
       </c>
       <c r="F195">
-        <v>14.45788805320805</v>
+        <v>15.05966551178584</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>14.40973398835946</v>
+        <v>14.32881104082542</v>
       </c>
       <c r="C196">
-        <v>14.38815379077127</v>
+        <v>14.38466158934868</v>
       </c>
       <c r="D196">
-        <v>15.37223730166385</v>
+        <v>14.21652818577093</v>
       </c>
       <c r="E196">
-        <v>14.46626314166607</v>
+        <v>14.12196172960012</v>
       </c>
       <c r="F196">
-        <v>14.36677233453504</v>
+        <v>14.97726553228939</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>14.3149328735689</v>
+        <v>14.23896117778252</v>
       </c>
       <c r="C197">
-        <v>14.29285556750786</v>
+        <v>14.29960011603813</v>
       </c>
       <c r="D197">
-        <v>15.30225649215799</v>
+        <v>14.12348645313826</v>
       </c>
       <c r="E197">
-        <v>14.37027516613285</v>
+        <v>14.03299012469328</v>
       </c>
       <c r="F197">
-        <v>14.27582771405568</v>
+        <v>14.89491850660828</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>14.22032348942169</v>
+        <v>14.1492706173885</v>
       </c>
       <c r="C198">
-        <v>14.19773459853743</v>
+        <v>14.21476088275815</v>
       </c>
       <c r="D198">
-        <v>15.23235421615664</v>
+        <v>14.03058581929694</v>
       </c>
       <c r="E198">
-        <v>14.27438525009851</v>
+        <v>13.94424350677504</v>
       </c>
       <c r="F198">
-        <v>14.18505582355277</v>
+        <v>14.8126255166894</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>14.12590651264504</v>
+        <v>14.05973993275419</v>
       </c>
       <c r="C199">
-        <v>14.1027916153846</v>
+        <v>14.13014440815455</v>
       </c>
       <c r="D199">
-        <v>15.16253136585912</v>
+        <v>13.93782664861092</v>
       </c>
       <c r="E199">
-        <v>14.17859404942381</v>
+        <v>13.85572253799782</v>
       </c>
       <c r="F199">
-        <v>14.09445826527857</v>
+        <v>14.73038760366056</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>14.03168262942953</v>
+        <v>13.97036970548752</v>
       </c>
       <c r="C200">
-        <v>14.00802735979768</v>
+        <v>14.04575121405086</v>
       </c>
       <c r="D200">
-        <v>15.09278881489154</v>
+        <v>13.84520931279581</v>
       </c>
       <c r="E200">
-        <v>14.08290223050703</v>
+        <v>13.76742788634212</v>
       </c>
       <c r="F200">
-        <v>14.00403661738609</v>
+        <v>14.64820576640292</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>13.93765253572036</v>
+        <v>13.8811605247854</v>
       </c>
       <c r="C201">
-        <v>13.91344258392346</v>
+        <v>13.96158182538899</v>
       </c>
       <c r="D201">
-        <v>15.02312741387354</v>
+        <v>13.75273419088283</v>
       </c>
       <c r="E201">
-        <v>13.98731047079635</v>
+        <v>13.67936022540665</v>
       </c>
       <c r="F201">
-        <v>13.91379243047549</v>
+        <v>14.56608098423057</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>13.84381693698189</v>
+        <v>13.79211298753247</v>
       </c>
       <c r="C202">
-        <v>13.8190380505698</v>
+        <v>13.87763677020436</v>
       </c>
       <c r="D202">
-        <v>14.95354799317993</v>
+        <v>13.66040166951577</v>
       </c>
       <c r="E202">
-        <v>13.89181945867897</v>
+        <v>13.59152023433349</v>
       </c>
       <c r="F202">
-        <v>13.82372723436996</v>
+        <v>14.48401420268561</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>13.75017654856424</v>
+        <v>13.70322769898568</v>
       </c>
       <c r="C203">
-        <v>13.72481453321599</v>
+        <v>13.7939165796871</v>
       </c>
       <c r="D203">
-        <v>14.88405136654725</v>
+        <v>13.5682121430436</v>
       </c>
       <c r="E203">
-        <v>13.79642989385508</v>
+        <v>13.50390859792709</v>
       </c>
       <c r="F203">
-        <v>13.73384253433554</v>
+        <v>14.40200633170727</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>13.65673209596042</v>
+        <v>13.61450527255404</v>
       </c>
       <c r="C204">
-        <v>13.63077281621529</v>
+        <v>13.71042178809605</v>
       </c>
       <c r="D204">
-        <v>14.8146383268738</v>
+        <v>13.47616601361341</v>
       </c>
       <c r="E204">
-        <v>13.70114248779433</v>
+        <v>13.41652600686231</v>
       </c>
       <c r="F204">
-        <v>13.64413981590877</v>
+        <v>14.32005825953197</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>13.56348431475878</v>
+        <v>13.52594633006021</v>
       </c>
       <c r="C205">
-        <v>13.53691369510837</v>
+        <v>13.62715293279943</v>
       </c>
       <c r="D205">
-        <v>14.74530965203779</v>
+        <v>13.38426369148627</v>
       </c>
       <c r="E205">
-        <v>13.60595796353496</v>
+        <v>13.32937315746695</v>
       </c>
       <c r="F205">
-        <v>13.55462054823964</v>
+        <v>14.23817084750373</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>13.47043395067562</v>
+        <v>13.43755150183924</v>
       </c>
       <c r="C206">
-        <v>13.44323797660193</v>
+        <v>13.54411055425634</v>
       </c>
       <c r="D206">
-        <v>14.67606610401997</v>
+        <v>13.29250559498574</v>
       </c>
       <c r="E206">
-        <v>13.51087705625163</v>
+        <v>13.24245075161029</v>
       </c>
       <c r="F206">
-        <v>13.46528618295186</v>
+        <v>14.15634492851306</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>13.37758175990707</v>
+        <v>13.34932142688428</v>
       </c>
       <c r="C207">
-        <v>13.34974647877204</v>
+        <v>13.46129519596486</v>
       </c>
       <c r="D207">
-        <v>14.60690842714129</v>
+        <v>13.2008921508308</v>
       </c>
       <c r="E207">
-        <v>13.41590051359859</v>
+        <v>13.15575949716166</v>
       </c>
       <c r="F207">
-        <v>13.37613814421792</v>
+        <v>14.07458130954746</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>13.28492850943396</v>
+        <v>13.26125675301484</v>
       </c>
       <c r="C208">
-        <v>13.25644003139936</v>
+        <v>13.37870740451622</v>
       </c>
       <c r="D208">
-        <v>14.53783735376398</v>
+        <v>13.10942379425028</v>
       </c>
       <c r="E208">
-        <v>13.32102909555445</v>
+        <v>13.06930010769732</v>
       </c>
       <c r="F208">
-        <v>13.28717785526693</v>
+        <v>13.99288077934216</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>13.19247497662807</v>
+        <v>13.17335813701245</v>
       </c>
       <c r="C209">
-        <v>13.16331947596222</v>
+        <v>13.29634772951927</v>
       </c>
       <c r="D209">
-        <v>14.46885360148849</v>
+        <v>13.01810096908407</v>
       </c>
       <c r="E209">
-        <v>13.22626357509743</v>
+        <v>12.98307330246528</v>
       </c>
       <c r="F209">
-        <v>13.19840672274048</v>
+        <v>13.91124410261142</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>13.10022194977569</v>
+        <v>13.08562624474256</v>
       </c>
       <c r="C210">
-        <v>13.07038566582544</v>
+        <v>13.21421672361001</v>
       </c>
       <c r="D210">
-        <v>14.39995787388976</v>
+        <v>12.92692412824981</v>
       </c>
       <c r="E210">
-        <v>13.13160473840091</v>
+        <v>12.89707980658585</v>
       </c>
       <c r="F210">
-        <v>13.10982613436382</v>
+        <v>13.82967201524817</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>13.00817022832248</v>
+        <v>12.99806175131177</v>
       </c>
       <c r="C211">
-        <v>12.97763946658807</v>
+        <v>13.13231494245205</v>
       </c>
       <c r="D211">
-        <v>14.33115086388742</v>
+        <v>12.83589373341937</v>
       </c>
       <c r="E211">
-        <v>13.0370533848184</v>
+        <v>12.81132035101755</v>
       </c>
       <c r="F211">
-        <v>13.02143746120628</v>
+        <v>13.74816524151557</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>12.91632062274865</v>
+        <v>12.91066534119111</v>
       </c>
       <c r="C212">
-        <v>12.88508175609889</v>
+        <v>13.05064294462399</v>
       </c>
       <c r="D212">
-        <v>14.26243325134995</v>
+        <v>12.74501025546208</v>
       </c>
       <c r="E212">
-        <v>12.94261032764411</v>
+        <v>12.72579567249437</v>
       </c>
       <c r="F212">
-        <v>12.93324207620741</v>
+        <v>13.66672448387981</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>12.82467395476096</v>
+        <v>12.82343770839067</v>
       </c>
       <c r="C213">
-        <v>12.7927134246302</v>
+        <v>12.96920129176496</v>
       </c>
       <c r="D213">
-        <v>14.19380570527786</v>
+        <v>12.65427417472671</v>
       </c>
       <c r="E213">
-        <v>12.84827639407225</v>
+        <v>12.64050651352802</v>
       </c>
       <c r="F213">
-        <v>12.84524133879655</v>
+        <v>13.58535042120115</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>12.7332310575748</v>
+        <v>12.73637955657812</v>
       </c>
       <c r="C214">
-        <v>12.70053537524616</v>
+        <v>12.8879905484666</v>
       </c>
       <c r="D214">
-        <v>14.12526888501024</v>
+        <v>12.56368598166338</v>
       </c>
       <c r="E214">
-        <v>12.75405242544599</v>
+        <v>12.55545362257197</v>
       </c>
       <c r="F214">
-        <v>12.75743658594129</v>
+        <v>13.50404371665284</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>12.64199277613147</v>
+        <v>12.64949159928122</v>
       </c>
       <c r="C215">
-        <v>12.60854852383229</v>
+        <v>12.80701128223681</v>
       </c>
       <c r="D215">
-        <v>14.05682343823855</v>
+        <v>12.47324617562953</v>
       </c>
       <c r="E215">
-        <v>12.65993927808031</v>
+        <v>12.47063775390925</v>
       </c>
       <c r="F215">
-        <v>12.66982915788048</v>
+        <v>13.42280501793842</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>12.55095996691794</v>
+        <v>12.56277455993404</v>
       </c>
       <c r="C216">
-        <v>12.51675379925359</v>
+        <v>12.72626406331364</v>
       </c>
       <c r="D216">
-        <v>13.98847000477635</v>
+        <v>12.38295526611385</v>
       </c>
       <c r="E216">
-        <v>12.56593782287477</v>
+        <v>12.38605966752349</v>
       </c>
       <c r="F216">
-        <v>12.58242038618245</v>
+        <v>13.34163495414148</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>12.46013349837082</v>
+        <v>12.47622917208472</v>
       </c>
       <c r="C217">
-        <v>12.42515214375205</v>
+        <v>12.6457494650987</v>
       </c>
       <c r="D217">
-        <v>13.92020921516134</v>
+        <v>12.29281377319174</v>
       </c>
       <c r="E217">
-        <v>12.47204894602649</v>
+        <v>12.30172012943072</v>
       </c>
       <c r="F217">
-        <v>12.49521159316498</v>
+        <v>13.26053413578296</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>12.36951425120169</v>
+        <v>12.38985617964788</v>
       </c>
       <c r="C218">
-        <v>12.33374451298816</v>
+        <v>12.56546806380167</v>
       </c>
       <c r="D218">
-        <v>13.85204169056817</v>
+        <v>12.20282222780003</v>
       </c>
       <c r="E218">
-        <v>12.37827354963858</v>
+        <v>12.21761991147295</v>
       </c>
       <c r="F218">
-        <v>12.40820408937531</v>
+        <v>13.17950316222523</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>12.27910311816281</v>
+        <v>12.30365633690084</v>
       </c>
       <c r="C219">
-        <v>12.24253187618044</v>
+        <v>12.48542043838982</v>
       </c>
       <c r="D219">
-        <v>13.78396804549221</v>
+        <v>12.11298117034562</v>
       </c>
       <c r="E219">
-        <v>12.28461255134958</v>
+        <v>12.13375979126689</v>
       </c>
       <c r="F219">
-        <v>12.32139918726574</v>
+        <v>13.098542617218</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>12.18890100439464</v>
+        <v>12.217630408654</v>
       </c>
       <c r="C220">
-        <v>12.15151521653098</v>
+        <v>12.40560717042708</v>
       </c>
       <c r="D220">
-        <v>13.71598888629486</v>
+        <v>12.0232911523614</v>
       </c>
       <c r="E220">
-        <v>12.19106688523303</v>
+        <v>12.05014055229431</v>
       </c>
       <c r="F220">
-        <v>12.23479819209192</v>
+        <v>13.0176530669999</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>12.098908827685</v>
+        <v>12.13177917054517</v>
       </c>
       <c r="C221">
-        <v>12.0606955312851</v>
+        <v>12.32602884463863</v>
       </c>
       <c r="D221">
-        <v>13.64810481197797</v>
+        <v>11.93375273717526</v>
       </c>
       <c r="E221">
-        <v>12.09763750223064</v>
+        <v>11.9667629839955</v>
       </c>
       <c r="F221">
-        <v>12.14840240236934</v>
+        <v>12.93683506827432</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>12.00912751865003</v>
+        <v>12.04610340915996</v>
       </c>
       <c r="C222">
-        <v>11.97007383185138</v>
+        <v>12.24668604839733</v>
       </c>
       <c r="D222">
-        <v>13.58031641571522</v>
+        <v>11.84436649937128</v>
       </c>
       <c r="E222">
-        <v>12.00432536992015</v>
+        <v>11.88362788161768</v>
       </c>
       <c r="F222">
-        <v>12.06221311377451</v>
+        <v>12.85608916420465</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>11.9195580205915</v>
+        <v>11.96060392201004</v>
       </c>
       <c r="C223">
-        <v>11.87965114424879</v>
+        <v>12.16757937165955</v>
       </c>
       <c r="D223">
-        <v>13.51262428357172</v>
+        <v>11.75513302426695</v>
       </c>
       <c r="E223">
-        <v>11.91113147354073</v>
+        <v>11.80073604611255</v>
       </c>
       <c r="F223">
-        <v>11.97623162074478</v>
+        <v>12.77541588429449</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>11.8302012899209</v>
+        <v>11.87528151790016</v>
       </c>
       <c r="C224">
-        <v>11.78942850919021</v>
+        <v>12.08870940694941</v>
       </c>
       <c r="D224">
-        <v>13.44502899616164</v>
+        <v>11.66605290920809</v>
       </c>
       <c r="E224">
-        <v>11.81805681617343</v>
+        <v>11.7180882844743</v>
       </c>
       <c r="F224">
-        <v>11.89045921469028</v>
+        <v>12.69481574623769</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>11.74105829656559</v>
+        <v>11.79013701716802</v>
       </c>
       <c r="C225">
-        <v>11.69940698218463</v>
+        <v>12.01007674974904</v>
       </c>
       <c r="D225">
-        <v>13.37753112882924</v>
+        <v>11.5771267645197</v>
       </c>
       <c r="E225">
-        <v>11.72510241877587</v>
+        <v>11.63568540949285</v>
       </c>
       <c r="F225">
-        <v>11.8048971809942</v>
+        <v>12.61428925846836</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>11.65213002355906</v>
+        <v>11.705171251524</v>
       </c>
       <c r="C226">
-        <v>11.60958763400146</v>
+        <v>11.93168199806256</v>
       </c>
       <c r="D226">
-        <v>13.31013125094479</v>
+        <v>11.48835521220436</v>
       </c>
       <c r="E226">
-        <v>11.63226932132055</v>
+        <v>11.5535282396276</v>
       </c>
       <c r="F226">
-        <v>11.7195468087448</v>
+        <v>12.53383691797143</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>11.56341746759658</v>
+        <v>11.62038506445233</v>
       </c>
       <c r="C227">
-        <v>11.51997155078002</v>
+        <v>11.85352575231479</v>
       </c>
       <c r="D227">
-        <v>13.24282992789166</v>
+        <v>11.39973888652764</v>
       </c>
       <c r="E227">
-        <v>11.53955858258189</v>
+        <v>11.47161759927906</v>
       </c>
       <c r="F227">
-        <v>11.63440938503876</v>
+        <v>12.45345920914724</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>11.47492163924281</v>
+        <v>11.53577931154109</v>
       </c>
       <c r="C228">
-        <v>11.43055983411485</v>
+        <v>11.77560861546655</v>
       </c>
       <c r="D228">
-        <v>13.17562772028468</v>
+        <v>11.31127843468468</v>
       </c>
       <c r="E228">
-        <v>11.44697128063016</v>
+        <v>11.38995431867547</v>
       </c>
       <c r="F228">
-        <v>11.54948619504546</v>
+        <v>12.37315660991668</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>11.38664356304769</v>
+        <v>11.45135486023896</v>
       </c>
       <c r="C229">
-        <v>11.34135360153679</v>
+        <v>11.69793119316556</v>
       </c>
       <c r="D229">
-        <v>13.10852518415643</v>
+        <v>11.22297451820587</v>
       </c>
       <c r="E229">
-        <v>11.35450851400825</v>
+        <v>11.3085392337524</v>
       </c>
       <c r="F229">
-        <v>11.46477852248008</v>
+        <v>12.29292958826891</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>11.29858427753035</v>
+        <v>11.36711259029441</v>
       </c>
       <c r="C230">
-        <v>11.25235398664865</v>
+        <v>11.62049409346176</v>
       </c>
       <c r="D230">
-        <v>13.04152287228896</v>
+        <v>11.13482781074763</v>
       </c>
       <c r="E230">
-        <v>11.26217140104278</v>
+        <v>11.2273731861319</v>
       </c>
       <c r="F230">
-        <v>11.38028765539284</v>
+        <v>12.21277860141771</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>11.2107448355751</v>
+        <v>11.283053394041</v>
       </c>
       <c r="C231">
-        <v>11.16356213919336</v>
+        <v>11.54329792663697</v>
       </c>
       <c r="D231">
-        <v>12.97462133345194</v>
+        <v>11.04683899983434</v>
       </c>
       <c r="E231">
-        <v>11.16996108102661</v>
+        <v>11.14645702335926</v>
       </c>
       <c r="F231">
-        <v>11.29601488185386</v>
+        <v>12.13270409973614</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>11.12312630478731</v>
+        <v>11.19917817633876</v>
       </c>
       <c r="C232">
-        <v>11.07497922555209</v>
+        <v>11.46634330543857</v>
       </c>
       <c r="D232">
-        <v>12.90782111308652</v>
+        <v>10.95900878701975</v>
       </c>
       <c r="E232">
-        <v>11.07787871500763</v>
+        <v>11.06579159866724</v>
       </c>
       <c r="F232">
-        <v>11.21196148772591</v>
+        <v>12.05270652602539</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>11.03572976718894</v>
+        <v>11.11548785479313</v>
       </c>
       <c r="C233">
-        <v>10.98660642890642</v>
+        <v>11.38963084504648</v>
       </c>
       <c r="D233">
-        <v>12.84112275395503</v>
+        <v>10.87133788962301</v>
       </c>
       <c r="E233">
-        <v>10.9859254852526</v>
+        <v>10.98537777075149</v>
       </c>
       <c r="F233">
-        <v>11.12812876379527</v>
+        <v>11.97278631476552</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>10.94855631973554</v>
+        <v>11.03198336011119</v>
       </c>
       <c r="C234">
-        <v>10.89844494928977</v>
+        <v>11.31316116289435</v>
       </c>
       <c r="D234">
-        <v>12.77452679547549</v>
+        <v>10.78382703777396</v>
       </c>
       <c r="E234">
-        <v>10.89410259661185</v>
+        <v>10.9052164042648</v>
       </c>
       <c r="F234">
-        <v>11.0445180030733</v>
+        <v>11.89294389251725</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>10.86160707457226</v>
+        <v>10.94866563622765</v>
       </c>
       <c r="C235">
-        <v>10.8104960041009</v>
+        <v>11.23693487837343</v>
       </c>
       <c r="D235">
-        <v>12.70803377495101</v>
+        <v>10.69647697702943</v>
       </c>
       <c r="E235">
-        <v>10.802411277053</v>
+        <v>10.82530836945129</v>
       </c>
       <c r="F235">
-        <v>10.96113050044032</v>
+        <v>11.81317968066824</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>10.77488315906633</v>
+        <v>10.86553564028589</v>
       </c>
       <c r="C236">
-        <v>10.7227608282927</v>
+        <v>11.16095261328656</v>
       </c>
       <c r="D236">
-        <v>12.6416442273622</v>
+        <v>10.60928846843393</v>
       </c>
       <c r="E236">
-        <v>10.71085277737444</v>
+        <v>10.74565454202814</v>
       </c>
       <c r="F236">
-        <v>10.87796755163336</v>
+        <v>11.73349409382945</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>10.6883857159251</v>
+        <v>10.78259434307274</v>
       </c>
       <c r="C237">
-        <v>10.63524067440976</v>
+        <v>11.08521499159931</v>
       </c>
       <c r="D237">
-        <v>12.57535868523635</v>
+        <v>10.52226228995298</v>
       </c>
       <c r="E237">
-        <v>10.61942837274848</v>
+        <v>10.66625580333029</v>
       </c>
       <c r="F237">
-        <v>10.79503045855727</v>
+        <v>11.65388753907911</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>10.602115903554</v>
+        <v>10.69984272930178</v>
       </c>
       <c r="C238">
-        <v>10.54793681311332</v>
+        <v>11.00972263934427</v>
       </c>
       <c r="D238">
-        <v>12.50917767971776</v>
+        <v>10.43539923366799</v>
       </c>
       <c r="E238">
-        <v>10.52813936283085</v>
+        <v>10.5871130403729</v>
       </c>
       <c r="F238">
-        <v>10.71232052596574</v>
+        <v>11.57436041961927</v>
       </c>
     </row>
   </sheetData>
